--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>6.99</v>
+        <v>1.23</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5.82</v>
+        <v>1.19</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>15/09/2023 10:26</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.92</v>
+        <v>5.03</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>4.91</v>
+        <v>6.15</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>15/09/2023 19:17</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>7.46</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>1.36</v>
+        <v>10.59</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>15/09/2023 10:26</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-tre-penne/nN5wyXX9/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-sp-domagnano/Q7HUxg3c/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.23</v>
+        <v>6.99</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.19</v>
+        <v>5.82</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>15/09/2023 10:26</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5.03</v>
+        <v>4.92</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>6.15</v>
+        <v>4.91</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>15/09/2023 19:17</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.46</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>10.59</v>
+        <v>1.36</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>15/09/2023 10:26</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-sp-domagnano/Q7HUxg3c/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-tre-penne/nN5wyXX9/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>4.61</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.54</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>3.88</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.83</v>
+        <v>3.77</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.98</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>4.02</v>
+        <v>1.88</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-sc-faetano/C4DQwZmi/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-folgore/8W6ZyDI3/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Faetano</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Folgore</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
       <c r="J7" t="n">
-        <v>4.61</v>
+        <v>1.95</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.88</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.77</v>
+        <v>4.83</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>2.98</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1.88</v>
+        <v>4.02</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-folgore/8W6ZyDI3/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-sc-faetano/C4DQwZmi/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>6.49</v>
+        <v>1.59</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6.36</v>
+        <v>4.15</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>23/09/2023 14:22</t>
+          <t>23/09/2023 14:55</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>3.61</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.93</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>23/09/2023 14:22</t>
+          <t>23/09/2023 14:55</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.31</v>
+        <v>4.04</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>23/09/2023 14:22</t>
+          <t>23/09/2023 14:55</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-tre-fiori/4GHYdCI5/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-ss-murata/QPIUch3a/</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>7.14</v>
+        <v>1.41</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,48 +1424,48 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7.7</v>
+        <v>1.46</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 14:50</t>
         </is>
       </c>
       <c r="N11" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:50</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
         <v>4.9</v>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>22/09/2023 03:13</t>
         </is>
       </c>
-      <c r="P11" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>23/09/2023 14:59</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>22/09/2023 03:13</t>
-        </is>
-      </c>
       <c r="T11" t="n">
-        <v>1.3</v>
+        <v>4.78</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 14:51</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-cosmos/r1TPbYmg/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-cailungo/YkMxdWXB/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,14 +1501,14 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.41</v>
+        <v>7.14</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>7.7</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>23/09/2023 14:50</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.19</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.71</v>
+        <v>4.93</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>23/09/2023 14:50</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4.9</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>4.78</v>
+        <v>1.3</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>23/09/2023 14:51</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-cailungo/YkMxdWXB/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-cosmos/r1TPbYmg/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tre Fiori</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Murata</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.59</v>
+        <v>6.49</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4.15</v>
+        <v>6.36</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>23/09/2023 14:55</t>
+          <t>23/09/2023 14:22</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.61</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.5</v>
+        <v>3.93</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>23/09/2023 14:55</t>
+          <t>23/09/2023 14:22</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.04</v>
+        <v>1.31</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>23/09/2023 14:55</t>
+          <t>23/09/2023 14:22</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-ss-murata/QPIUch3a/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-tre-fiori/4GHYdCI5/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.3</v>
+        <v>9.01</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.76</v>
+        <v>8.08</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>24/09/2023 14:54</t>
+          <t>24/09/2023 14:55</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.15</v>
+        <v>5.46</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.48</v>
+        <v>5.57</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>24/09/2023 14:07</t>
+          <t>24/09/2023 14:55</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.53</v>
+        <v>1.17</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>24/09/2023 14:54</t>
+          <t>24/09/2023 14:55</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-juvenes-dogana/x4QH0fJt/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-la-fiorita/hvZAwOHp/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>9.01</v>
+        <v>2.3</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>8.08</v>
+        <v>2.76</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>24/09/2023 14:55</t>
+          <t>24/09/2023 14:54</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>5.46</v>
+        <v>3.15</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>5.57</v>
+        <v>3.48</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>24/09/2023 14:55</t>
+          <t>24/09/2023 14:07</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.17</v>
+        <v>2.53</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>24/09/2023 14:55</t>
+          <t>24/09/2023 14:54</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-la-fiorita/hvZAwOHp/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-juvenes-dogana/x4QH0fJt/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>1.2</v>
+        <v>15.08</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.58</v>
+        <v>9.94</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>01/10/2023 14:06</t>
+          <t>01/10/2023 14:09</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4.94</v>
+        <v>10.14</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.27</v>
+        <v>7.57</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>01/10/2023 14:31</t>
+          <t>01/10/2023 14:09</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>9.050000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>5.8</v>
+        <v>1.15</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>01/10/2023 14:08</t>
+          <t>01/10/2023 14:04</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/la-fiorita-folgore/4le1bPgA/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-tre-penne/CEb9d3OM/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>15.08</v>
+        <v>1.2</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>9.94</v>
+        <v>1.58</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>01/10/2023 14:09</t>
+          <t>01/10/2023 14:06</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>10.14</v>
+        <v>4.94</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>7.57</v>
+        <v>3.27</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>01/10/2023 14:09</t>
+          <t>01/10/2023 14:31</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.04</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.15</v>
+        <v>5.8</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>01/10/2023 14:04</t>
+          <t>01/10/2023 14:08</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-tre-penne/CEb9d3OM/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/la-fiorita-folgore/4le1bPgA/</t>
         </is>
       </c>
     </row>
@@ -2478,6 +2478,650 @@
       <c r="V22" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-sp-domagnano/fwlEeNwT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45202.88541666666</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Fiorentino</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Cosmos</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>03/10/2023 21:10</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>03/10/2023 21:10</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>03/10/2023 21:10</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-sp-cosmos/hY5teB4F/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45202.88541666666</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Virtus</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Libertas</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:20</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:20</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:20</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-ac-libertas/dnztisnp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45203.88541666666</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Folgore</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>03/10/2023 10:58</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>04/10/2023 19:20</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>04/10/2023 19:03</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-domagnano/QLvpj11j/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45203.88541666666</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Juvenes/Dogana</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>La Fiorita</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>04/10/2023 19:15</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>04/10/2023 19:20</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>04/10/2023 19:15</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-la-fiorita/A90ofVJL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45203.88541666666</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>San Giovanni</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Murata</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:11</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:11</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:11</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-ss-murata/Es7xdik9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45203.88541666666</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Pennarossa</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Tre Fiori</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>04/10/2023 15:16</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>04/10/2023 19:16</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>04/10/2023 15:16</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45203.88541666666</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tre Penne</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>6</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Faetano</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:14</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:14</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:14</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>30/09/2023 14:01</t>
+          <t>30/09/2023 11:15</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.82</v>
+        <v>5.91</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.21</v>
+        <v>6.92</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>30/09/2023 14:06</t>
+          <t>30/09/2023 13:02</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>5.1</v>
+        <v>9.56</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.99</v>
+        <v>12.95</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>30/09/2023 14:06</t>
+          <t>30/09/2023 11:15</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-fiorentino/byQ00oPc/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-san-giovanni/6swFxrXj/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.15</v>
+        <v>4.45</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.13</v>
+        <v>4.76</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>30/09/2023 11:15</t>
+          <t>30/09/2023 14:08</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>5.91</v>
+        <v>3.99</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>6.92</v>
+        <v>4.46</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>30/09/2023 13:02</t>
+          <t>30/09/2023 14:12</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>9.56</v>
+        <v>1.5</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>12.95</v>
+        <v>1.49</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>30/09/2023 11:15</t>
+          <t>30/09/2023 14:12</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-san-giovanni/6swFxrXj/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-ac-libertas/Qcdca5v4/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.76</v>
+        <v>4.66</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>30/09/2023 14:08</t>
+          <t>30/09/2023 13:51</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.99</v>
+        <v>3.75</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,11 +2084,11 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.46</v>
+        <v>3.92</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>30/09/2023 14:12</t>
+          <t>30/09/2023 13:51</t>
         </is>
       </c>
       <c r="R18" t="n">
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>30/09/2023 14:12</t>
+          <t>30/09/2023 13:51</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-ac-libertas/Qcdca5v4/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-virtus/KpRd1R9i/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.6</v>
+        <v>1.44</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4.66</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>30/09/2023 13:51</t>
+          <t>30/09/2023 14:01</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.75</v>
+        <v>3.82</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.92</v>
+        <v>4.21</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>30/09/2023 13:51</t>
+          <t>30/09/2023 14:06</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.57</v>
+        <v>4.99</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>30/09/2023 13:51</t>
+          <t>30/09/2023 14:06</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-virtus/KpRd1R9i/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-fiorentino/byQ00oPc/</t>
         </is>
       </c>
     </row>
@@ -3122,6 +3122,98 @@
       <c r="V29" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45205.88541666666</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Virtus</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Fiorentino</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:10</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:17</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:10</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-fiorentino/tbvUo7R1/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.39</v>
+        <v>4.61</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.49</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>16/09/2023 12:06</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.85</v>
+        <v>3.88</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.09</v>
+        <v>3.77</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>16/09/2023 13:02</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.65</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.6</v>
+        <v>1.88</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>16/09/2023 12:06</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-virtus/b1PrFkBj/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-folgore/8W6ZyDI3/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Faetano</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Folgore</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
       <c r="J6" t="n">
-        <v>4.61</v>
+        <v>1.95</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>1.54</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.88</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.77</v>
+        <v>4.83</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>2.98</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>1.88</v>
+        <v>4.02</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-folgore/8W6ZyDI3/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-sc-faetano/C4DQwZmi/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.95</v>
+        <v>2.39</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.54</v>
+        <v>2.49</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 12:06</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>2.85</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.83</v>
+        <v>3.09</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 13:02</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.98</v>
+        <v>2.65</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>4.02</v>
+        <v>2.6</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 12:06</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-sc-faetano/C4DQwZmi/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-virtus/b1PrFkBj/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>30/09/2023 11:15</t>
+          <t>30/09/2023 14:01</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>5.91</v>
+        <v>3.82</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>6.92</v>
+        <v>4.21</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>30/09/2023 13:02</t>
+          <t>30/09/2023 14:06</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>9.56</v>
+        <v>5.1</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>12.95</v>
+        <v>4.99</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>30/09/2023 11:15</t>
+          <t>30/09/2023 14:06</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-san-giovanni/6swFxrXj/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-fiorentino/byQ00oPc/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>30/09/2023 14:01</t>
+          <t>30/09/2023 11:15</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.82</v>
+        <v>5.91</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.21</v>
+        <v>6.92</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>30/09/2023 14:06</t>
+          <t>30/09/2023 13:02</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>5.1</v>
+        <v>9.56</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.99</v>
+        <v>12.95</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>30/09/2023 14:06</t>
+          <t>30/09/2023 11:15</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-fiorentino/byQ00oPc/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-san-giovanni/6swFxrXj/</t>
         </is>
       </c>
     </row>
@@ -3214,6 +3214,190 @@
       <c r="V30" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-fiorentino/tbvUo7R1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tre Fiori</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Folgore</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:14</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:02</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:14</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-folgore/84SBAj42/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Tre Penne</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>5</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>San Giovanni</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-san-giovanni/6unHl9sq/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3401,6 +3401,98 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45206.76041666666</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Pennarossa</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Juvenes/Dogana</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>06/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:31</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>06/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:16</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>06/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:31</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-juvenes-dogana/KrjLmTdk/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Faetano</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Folgore</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
       <c r="J5" t="n">
-        <v>4.61</v>
+        <v>1.95</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>1.54</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.88</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.77</v>
+        <v>4.83</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>2.98</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>1.88</v>
+        <v>4.02</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-folgore/8W6ZyDI3/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-sc-faetano/C4DQwZmi/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>4.61</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.54</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>3.88</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.83</v>
+        <v>3.77</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.98</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>4.02</v>
+        <v>1.88</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-sc-faetano/C4DQwZmi/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-folgore/8W6ZyDI3/</t>
         </is>
       </c>
     </row>
@@ -3490,6 +3490,190 @@
       <c r="V33" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-juvenes-dogana/KrjLmTdk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Cailungo</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Cosmos</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:14</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:14</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:14</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sp-cosmos/UJGK8UYE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Faetano</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>4</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:14</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:48</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:14</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:02</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:14</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:48</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-sc-faetano/neRF9AJ8/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.53</v>
+        <v>6.99</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3.15</v>
+        <v>5.82</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14/09/2023 11:59</t>
+          <t>15/09/2023 10:26</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.12</v>
+        <v>4.92</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.49</v>
+        <v>4.91</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>15/09/2023 19:18</t>
+          <t>15/09/2023 19:17</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.32</v>
+        <v>1.24</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>1.36</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>14/09/2023 11:59</t>
+          <t>15/09/2023 10:26</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-fiorentino/GtMJKBmT/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-tre-penne/nN5wyXX9/</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.23</v>
+        <v>2.53</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.19</v>
+        <v>3.15</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>14/09/2023 11:59</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5.03</v>
+        <v>3.12</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>6.15</v>
+        <v>3.49</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>15/09/2023 19:18</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.46</v>
+        <v>2.32</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>10.59</v>
+        <v>1.97</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>14/09/2023 11:59</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-sp-domagnano/Q7HUxg3c/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-fiorentino/GtMJKBmT/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>6.99</v>
+        <v>1.23</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5.82</v>
+        <v>1.19</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>15/09/2023 10:26</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.92</v>
+        <v>5.03</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4.91</v>
+        <v>6.15</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>15/09/2023 19:17</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>7.46</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1.36</v>
+        <v>10.59</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>15/09/2023 10:26</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-tre-penne/nN5wyXX9/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-sp-domagnano/Q7HUxg3c/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.95</v>
+        <v>4.61</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.54</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>3.88</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.83</v>
+        <v>3.77</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.98</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.02</v>
+        <v>1.88</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-sc-faetano/C4DQwZmi/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-folgore/8W6ZyDI3/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Faetano</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Folgore</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
       <c r="J6" t="n">
-        <v>4.61</v>
+        <v>1.95</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>1.54</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.88</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.77</v>
+        <v>4.83</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>2.98</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>1.88</v>
+        <v>4.02</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-folgore/8W6ZyDI3/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-sc-faetano/C4DQwZmi/</t>
         </is>
       </c>
     </row>
@@ -3674,6 +3674,98 @@
       <c r="V35" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-sc-faetano/neRF9AJ8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45207.76041666666</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>La Fiorita</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Murata</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>07/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:11</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>07/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:11</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>07/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:11</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/la-fiorita-ss-murata/27uQnmCe/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.08</v>
+        <v>6.17</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.56</v>
+        <v>6.86</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>03/10/2023 10:58</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.13</v>
+        <v>4.22</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.85</v>
+        <v>4.31</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>04/10/2023 19:20</t>
+          <t>04/10/2023 19:16</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.89</v>
+        <v>1.33</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.79</v>
+        <v>1.36</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>04/10/2023 19:03</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-domagnano/QLvpj11j/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>6.67</v>
+        <v>4.05</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6.29</v>
+        <v>6.38</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>04/10/2023 19:15</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.52</v>
+        <v>3.7</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.44</v>
+        <v>4.94</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>04/10/2023 19:20</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.28</v>
+        <v>1.58</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>04/10/2023 19:15</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-la-fiorita/A90ofVJL/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-ss-murata/Es7xdik9/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>4.05</v>
+        <v>1.15</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6.38</v>
+        <v>1.13</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.7</v>
+        <v>6.11</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.94</v>
+        <v>7.23</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.58</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.34</v>
+        <v>13.37</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-ss-murata/Es7xdik9/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>6.17</v>
+        <v>2.08</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6.86</v>
+        <v>1.56</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>03/10/2023 10:58</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4.22</v>
+        <v>3.13</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.31</v>
+        <v>3.85</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>04/10/2023 19:16</t>
+          <t>04/10/2023 19:20</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1.33</v>
+        <v>2.89</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.36</v>
+        <v>4.79</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>04/10/2023 19:03</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-domagnano/QLvpj11j/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.15</v>
+        <v>6.67</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.13</v>
+        <v>6.29</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 19:15</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>6.11</v>
+        <v>4.52</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>7.23</v>
+        <v>4.44</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 19:20</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>8.859999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>13.37</v>
+        <v>1.38</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 19:15</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-la-fiorita/A90ofVJL/</t>
         </is>
       </c>
     </row>
@@ -3766,6 +3766,190 @@
       <c r="V36" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/la-fiorita-ss-murata/27uQnmCe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45219.88541666666</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Folgore</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>San Giovanni</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>20/10/2023 21:11</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>20/10/2023 21:11</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>20/10/2023 21:11</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-san-giovanni/rNKO7llL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45219.88541666666</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Murata</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Cailungo</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:20</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:23</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:23</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-cailungo/dU0a1nRl/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>6.99</v>
+        <v>1.23</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5.82</v>
+        <v>1.19</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15/09/2023 10:26</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4.92</v>
+        <v>5.03</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>4.91</v>
+        <v>6.15</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>15/09/2023 19:17</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.24</v>
+        <v>7.46</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>1.36</v>
+        <v>10.59</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>15/09/2023 10:26</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-tre-penne/nN5wyXX9/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-sp-domagnano/Q7HUxg3c/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.23</v>
+        <v>6.99</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.19</v>
+        <v>5.82</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>15/09/2023 10:26</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5.03</v>
+        <v>4.92</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>6.15</v>
+        <v>4.91</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>15/09/2023 19:17</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.46</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>10.59</v>
+        <v>1.36</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>15/09/2023 10:26</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-sp-domagnano/Q7HUxg3c/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-tre-penne/nN5wyXX9/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>6.17</v>
+        <v>1.15</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6.86</v>
+        <v>1.13</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4.22</v>
+        <v>6.11</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.31</v>
+        <v>7.23</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>04/10/2023 19:16</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>1.33</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>1.36</v>
+        <v>13.37</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>4.05</v>
+        <v>2.08</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6.38</v>
+        <v>1.56</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>03/10/2023 10:58</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.7</v>
+        <v>3.13</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.94</v>
+        <v>3.85</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 19:20</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.58</v>
+        <v>2.89</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.34</v>
+        <v>4.79</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 19:03</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-ss-murata/Es7xdik9/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-domagnano/QLvpj11j/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.15</v>
+        <v>6.67</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.13</v>
+        <v>6.29</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 19:15</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>6.11</v>
+        <v>4.52</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>7.23</v>
+        <v>4.44</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 19:20</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>8.859999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>13.37</v>
+        <v>1.38</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 19:15</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-la-fiorita/A90ofVJL/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.08</v>
+        <v>4.05</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.56</v>
+        <v>6.38</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>03/10/2023 10:58</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.13</v>
+        <v>3.7</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.85</v>
+        <v>4.94</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>04/10/2023 19:20</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.89</v>
+        <v>1.58</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.79</v>
+        <v>1.34</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>04/10/2023 19:03</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-domagnano/QLvpj11j/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-ss-murata/Es7xdik9/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>6.67</v>
+        <v>6.17</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6.29</v>
+        <v>6.86</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>04/10/2023 19:15</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.52</v>
+        <v>4.22</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>04/10/2023 19:20</t>
+          <t>04/10/2023 19:16</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>04/10/2023 19:15</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-la-fiorita/A90ofVJL/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.63</v>
+        <v>1.12</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.63</v>
+        <v>1.12</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>07/10/2023 12:14</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.34</v>
+        <v>6.37</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.65</v>
+        <v>7.58</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>07/10/2023 13:02</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.24</v>
+        <v>10.28</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.51</v>
+        <v>12.66</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>07/10/2023 12:14</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-folgore/84SBAj42/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-san-giovanni/6unHl9sq/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1.12</v>
+        <v>1.63</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.12</v>
+        <v>1.63</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 12:14</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>6.37</v>
+        <v>3.34</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>7.58</v>
+        <v>3.65</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 13:02</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>10.28</v>
+        <v>4.24</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>12.66</v>
+        <v>4.51</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 12:14</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-san-giovanni/6unHl9sq/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-folgore/84SBAj42/</t>
         </is>
       </c>
     </row>
@@ -3950,6 +3950,282 @@
       <c r="V38" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-cailungo/dU0a1nRl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Cosmos</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>La Fiorita</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-la-fiorita/zLa306te/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Fiorentino</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Juvenes/Dogana</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:27</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:27</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:27</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-juvenes-dogana/UXegNTm8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Libertas</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:17</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:17</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:17</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-ac-libertas/vg6f2SBr/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1.23</v>
+        <v>2.53</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.19</v>
+        <v>3.15</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>14/09/2023 11:59</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>5.03</v>
+        <v>3.12</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>6.15</v>
+        <v>3.49</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>15/09/2023 19:18</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7.46</v>
+        <v>2.32</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>10.59</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>14/09/2023 11:59</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-sp-domagnano/Q7HUxg3c/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-fiorentino/GtMJKBmT/</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.53</v>
+        <v>1.23</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3.15</v>
+        <v>1.19</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>14/09/2023 11:59</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.12</v>
+        <v>5.03</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.49</v>
+        <v>6.15</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>15/09/2023 19:18</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.32</v>
+        <v>7.46</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>1.97</v>
+        <v>10.59</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>14/09/2023 11:59</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-fiorentino/GtMJKBmT/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-sp-domagnano/Q7HUxg3c/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.15</v>
+        <v>2.08</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>03/10/2023 10:58</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>6.11</v>
+        <v>3.13</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>7.23</v>
+        <v>3.85</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 19:20</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>8.859999999999999</v>
+        <v>2.89</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>13.37</v>
+        <v>4.79</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 19:03</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-domagnano/QLvpj11j/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.08</v>
+        <v>6.67</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.56</v>
+        <v>6.29</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>03/10/2023 10:58</t>
+          <t>04/10/2023 19:15</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.13</v>
+        <v>4.52</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.85</v>
+        <v>4.44</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.89</v>
+        <v>1.28</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>4.79</v>
+        <v>1.38</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>04/10/2023 19:03</t>
+          <t>04/10/2023 19:15</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-domagnano/QLvpj11j/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-la-fiorita/A90ofVJL/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>6.67</v>
+        <v>4.05</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6.29</v>
+        <v>6.38</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>04/10/2023 19:15</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.52</v>
+        <v>3.7</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.44</v>
+        <v>4.94</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>04/10/2023 19:20</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.28</v>
+        <v>1.58</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>04/10/2023 19:15</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-la-fiorita/A90ofVJL/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-ss-murata/Es7xdik9/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>4.05</v>
+        <v>6.17</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6.38</v>
+        <v>6.86</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.7</v>
+        <v>4.22</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.94</v>
+        <v>4.31</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 19:16</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-ss-murata/Es7xdik9/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>6.17</v>
+        <v>1.15</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6.86</v>
+        <v>1.13</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.22</v>
+        <v>6.11</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.31</v>
+        <v>7.23</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>04/10/2023 19:16</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>1.33</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.36</v>
+        <v>13.37</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.28</v>
+        <v>2.17</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>21/10/2023 14:57</t>
+          <t>21/10/2023 14:27</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.82</v>
+        <v>3.19</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.64</v>
+        <v>3.62</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>21/10/2023 14:57</t>
+          <t>21/10/2023 14:27</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.82</v>
+        <v>2.69</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>21/10/2023 14:57</t>
+          <t>21/10/2023 14:27</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-la-fiorita/zLa306te/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-juvenes-dogana/UXegNTm8/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>21/10/2023 14:27</t>
+          <t>21/10/2023 14:57</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.19</v>
+        <v>2.82</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>21/10/2023 14:27</t>
+          <t>21/10/2023 14:57</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.69</v>
+        <v>2.82</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>21/10/2023 14:27</t>
+          <t>21/10/2023 14:57</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-juvenes-dogana/UXegNTm8/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-la-fiorita/zLa306te/</t>
         </is>
       </c>
     </row>
@@ -4226,6 +4226,98 @@
       <c r="V41" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-ac-libertas/vg6f2SBr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45220.76041666666</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Tre Penne</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Pennarossa</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>20/10/2023 05:43</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>20/10/2023 05:43</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:09</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>20/10/2023 05:43</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:09</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ss-pennarossa/Usa7aQe1/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4321,6 +4321,98 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Faetano</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Tre Fiori</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-tre-fiori/SSHAbpB7/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>4.61</v>
+        <v>2.39</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>2.49</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 12:06</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.88</v>
+        <v>2.85</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.77</v>
+        <v>3.09</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 13:02</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>2.65</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>1.88</v>
+        <v>2.6</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 12:06</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-folgore/8W6ZyDI3/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-virtus/b1PrFkBj/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>4.61</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.54</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>3.88</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.83</v>
+        <v>3.77</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.98</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>4.02</v>
+        <v>1.88</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-sc-faetano/C4DQwZmi/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-folgore/8W6ZyDI3/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Faetano</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Virtus</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
       <c r="J7" t="n">
-        <v>2.39</v>
+        <v>1.95</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.49</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>16/09/2023 12:06</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.85</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.09</v>
+        <v>4.83</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>16/09/2023 13:02</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.65</v>
+        <v>2.98</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.6</v>
+        <v>4.02</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>16/09/2023 12:06</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-virtus/b1PrFkBj/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-sc-faetano/C4DQwZmi/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.59</v>
+        <v>7.14</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4.15</v>
+        <v>7.7</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>23/09/2023 14:55</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.61</v>
+        <v>4.9</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.5</v>
+        <v>4.93</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>23/09/2023 14:55</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.04</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1.56</v>
+        <v>1.3</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>23/09/2023 14:55</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-ss-murata/QPIUch3a/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-cosmos/r1TPbYmg/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,14 +1501,14 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>7.14</v>
+        <v>6.49</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7.7</v>
+        <v>6.36</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 14:22</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.93</v>
+        <v>3.93</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 14:22</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 14:22</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-cosmos/r1TPbYmg/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-tre-fiori/4GHYdCI5/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>6.49</v>
+        <v>1.59</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6.36</v>
+        <v>4.15</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>23/09/2023 14:22</t>
+          <t>23/09/2023 14:55</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>3.61</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.93</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>23/09/2023 14:22</t>
+          <t>23/09/2023 14:55</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.31</v>
+        <v>4.04</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>23/09/2023 14:22</t>
+          <t>23/09/2023 14:55</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-tre-fiori/4GHYdCI5/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-ss-murata/QPIUch3a/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>4.45</v>
+        <v>1.15</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.76</v>
+        <v>1.13</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>30/09/2023 14:08</t>
+          <t>30/09/2023 11:15</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.99</v>
+        <v>5.91</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.46</v>
+        <v>6.92</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>30/09/2023 14:12</t>
+          <t>30/09/2023 13:02</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>9.56</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.49</v>
+        <v>12.95</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>30/09/2023 14:12</t>
+          <t>30/09/2023 11:15</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-ac-libertas/Qcdca5v4/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-san-giovanni/6swFxrXj/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.66</v>
+        <v>4.76</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>30/09/2023 13:51</t>
+          <t>30/09/2023 14:08</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.75</v>
+        <v>3.99</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,11 +2084,11 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.92</v>
+        <v>4.46</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>30/09/2023 13:51</t>
+          <t>30/09/2023 14:12</t>
         </is>
       </c>
       <c r="R18" t="n">
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>30/09/2023 13:51</t>
+          <t>30/09/2023 14:12</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-virtus/KpRd1R9i/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-ac-libertas/Qcdca5v4/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.15</v>
+        <v>4.6</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.13</v>
+        <v>4.66</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>30/09/2023 11:15</t>
+          <t>30/09/2023 13:51</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>5.91</v>
+        <v>3.75</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>6.92</v>
+        <v>3.92</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>30/09/2023 13:02</t>
+          <t>30/09/2023 13:51</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>9.56</v>
+        <v>1.5</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>12.95</v>
+        <v>1.57</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>30/09/2023 11:15</t>
+          <t>30/09/2023 13:51</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-san-giovanni/6swFxrXj/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-virtus/KpRd1R9i/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.08</v>
+        <v>1.15</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>03/10/2023 10:58</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.13</v>
+        <v>6.11</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.85</v>
+        <v>7.23</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>04/10/2023 19:20</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.89</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.79</v>
+        <v>13.37</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>04/10/2023 19:03</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-domagnano/QLvpj11j/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>6.67</v>
+        <v>6.17</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6.29</v>
+        <v>6.86</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>04/10/2023 19:15</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.52</v>
+        <v>4.22</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>04/10/2023 19:20</t>
+          <t>04/10/2023 19:16</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>04/10/2023 19:15</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-la-fiorita/A90ofVJL/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>4.05</v>
+        <v>6.67</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6.38</v>
+        <v>6.29</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 19:15</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.7</v>
+        <v>4.52</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.94</v>
+        <v>4.44</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 19:20</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.58</v>
+        <v>1.28</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 19:15</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-ss-murata/Es7xdik9/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-la-fiorita/A90ofVJL/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>6.17</v>
+        <v>2.08</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6.86</v>
+        <v>1.56</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>03/10/2023 10:58</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4.22</v>
+        <v>3.13</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.31</v>
+        <v>3.85</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>04/10/2023 19:16</t>
+          <t>04/10/2023 19:20</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1.33</v>
+        <v>2.89</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.36</v>
+        <v>4.79</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>04/10/2023 19:03</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-domagnano/QLvpj11j/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.15</v>
+        <v>4.05</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.13</v>
+        <v>6.38</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>6.11</v>
+        <v>3.7</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>7.23</v>
+        <v>4.94</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>8.859999999999999</v>
+        <v>1.58</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>13.37</v>
+        <v>1.34</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-ss-murata/Es7xdik9/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.12</v>
+        <v>1.63</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.12</v>
+        <v>1.63</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 12:14</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>6.37</v>
+        <v>3.34</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>7.58</v>
+        <v>3.65</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 13:02</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>10.28</v>
+        <v>4.24</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>12.66</v>
+        <v>4.51</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 12:14</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-san-giovanni/6unHl9sq/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-folgore/84SBAj42/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.63</v>
+        <v>1.12</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.63</v>
+        <v>1.12</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>07/10/2023 12:14</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.34</v>
+        <v>6.37</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.65</v>
+        <v>7.58</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>07/10/2023 13:02</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.24</v>
+        <v>10.28</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.51</v>
+        <v>12.66</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>07/10/2023 12:14</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-folgore/84SBAj42/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-san-giovanni/6unHl9sq/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Libertas</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Juvenes/Dogana</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
       <c r="J39" t="n">
-        <v>2.17</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.28</v>
+        <v>4.12</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>21/10/2023 14:27</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.19</v>
+        <v>3.48</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.62</v>
+        <v>3.93</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>21/10/2023 14:27</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.69</v>
+        <v>1.74</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>21/10/2023 14:27</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-juvenes-dogana/UXegNTm8/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-ac-libertas/vg6f2SBr/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.28</v>
+        <v>2.17</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>21/10/2023 14:57</t>
+          <t>21/10/2023 14:27</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2.82</v>
+        <v>3.19</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2.64</v>
+        <v>3.62</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>21/10/2023 14:57</t>
+          <t>21/10/2023 14:27</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.82</v>
+        <v>2.69</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>21/10/2023 14:57</t>
+          <t>21/10/2023 14:27</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-la-fiorita/zLa306te/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-juvenes-dogana/UXegNTm8/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.5</v>
+        <v>2.28</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4.12</v>
+        <v>3.26</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:57</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.48</v>
+        <v>2.82</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.93</v>
+        <v>2.64</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:57</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.74</v>
+        <v>2.82</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.64</v>
+        <v>2.38</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:57</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-ac-libertas/vg6f2SBr/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-la-fiorita/zLa306te/</t>
         </is>
       </c>
     </row>
@@ -4410,6 +4410,650 @@
       <c r="V43" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-tre-fiori/SSHAbpB7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>San Giovanni</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Fiorentino</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:33</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:33</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:33</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Pennarossa</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:33</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Virtus</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>La Fiorita</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:33</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:33</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:33</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45227.76041666666</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Libertas</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Folgore</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>27/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:00</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>27/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:04</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>27/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:00</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-folgore/lbfsC3u7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45228.625</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Tre Penne</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Murata</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>28/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:24</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>28/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:32</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>28/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:24</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ss-murata/zZvxF5el/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45228.625</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Cailungo</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>4</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Faetano</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>28/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>28/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>28/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sc-faetano/MVzYFotr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45228.625</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Tre Fiori</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Cosmos</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>28/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:05</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>28/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:01</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>28/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:05</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-sp-cosmos/8OfcMm3E/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>6.17</v>
+        <v>4.05</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6.86</v>
+        <v>6.38</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.22</v>
+        <v>3.7</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.31</v>
+        <v>4.94</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>04/10/2023 19:16</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-ss-murata/Es7xdik9/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>6.67</v>
+        <v>6.17</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6.29</v>
+        <v>6.86</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>04/10/2023 19:15</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.52</v>
+        <v>4.22</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>04/10/2023 19:20</t>
+          <t>04/10/2023 19:16</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>04/10/2023 19:15</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-la-fiorita/A90ofVJL/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>4.05</v>
+        <v>6.67</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6.38</v>
+        <v>6.29</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 19:15</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.7</v>
+        <v>4.52</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.94</v>
+        <v>4.44</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 19:20</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>1.58</v>
+        <v>1.28</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 19:15</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-ss-murata/Es7xdik9/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-la-fiorita/A90ofVJL/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>3.06</v>
+        <v>2.64</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.24</v>
+        <v>2.82</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.21</v>
+        <v>2.75</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.24</v>
+        <v>2.69</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.96</v>
+        <v>2.47</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.05</v>
+        <v>2.64</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.35</v>
+        <v>3.06</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.66</v>
+        <v>3.24</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>2</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>La Fiorita</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
       <c r="J46" t="n">
-        <v>2.64</v>
+        <v>2.35</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,48 +4644,48 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>28/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
           <t>28/10/2023 14:33</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O46" t="inlineStr">
+      <c r="R46" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S46" t="inlineStr">
         <is>
           <t>27/10/2023 03:12</t>
         </is>
       </c>
-      <c r="P46" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>28/10/2023 14:33</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>27/10/2023 03:12</t>
-        </is>
-      </c>
       <c r="T46" t="n">
-        <v>2.64</v>
+        <v>1.9</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/10/2023 14:33</t>
+          <t>28/10/2023 14:46</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.45</v>
+        <v>2.69</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.85</v>
+        <v>3.01</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:24</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.07</v>
+        <v>3.3</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.81</v>
+        <v>3.7</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:32</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.66</v>
+        <v>2.12</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.26</v>
+        <v>1.99</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:24</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ss-murata/zZvxF5el/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sc-faetano/MVzYFotr/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.69</v>
+        <v>3.11</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.01</v>
+        <v>2.84</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 09:05</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.3</v>
+        <v>2.97</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 13:01</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 09:05</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sc-faetano/MVzYFotr/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-sp-cosmos/8OfcMm3E/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>3.11</v>
+        <v>1.45</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.84</v>
+        <v>1.85</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>29/10/2023 09:05</t>
+          <t>29/10/2023 14:24</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>2.97</v>
+        <v>4.07</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.25</v>
+        <v>3.81</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>29/10/2023 13:01</t>
+          <t>29/10/2023 14:32</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.05</v>
+        <v>4.66</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,476 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.2</v>
+        <v>3.26</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>29/10/2023 09:05</t>
+          <t>29/10/2023 14:24</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-sp-cosmos/8OfcMm3E/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ss-murata/zZvxF5el/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45234.625</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Faetano</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>4</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Folgore</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>03/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:05</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>03/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:16</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>03/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:08</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-folgore/thsTZ6XD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45234.625</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Cosmos</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Tre Penne</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>03/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:16</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>03/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:16</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>03/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:06</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-tre-penne/hU9dIv2t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45234.625</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Libertas</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Cailungo</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>03/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:05</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>03/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:05</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>03/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:05</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-cailungo/rJ29Fxna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45234.625</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>San Giovanni</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>La Fiorita</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>03/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:18</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>03/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:18</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>03/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:18</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-la-fiorita/SlgoBNfD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45234.76041666666</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Virtus</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>03/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:49</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>03/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:49</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>03/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:49</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-virtus/zga1HbHn/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.15</v>
+        <v>6.17</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.13</v>
+        <v>6.86</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>6.11</v>
+        <v>4.22</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>7.23</v>
+        <v>4.31</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 19:16</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>8.859999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>13.37</v>
+        <v>1.36</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>6.17</v>
+        <v>1.15</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6.86</v>
+        <v>1.13</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.22</v>
+        <v>6.11</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.31</v>
+        <v>7.23</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>04/10/2023 19:16</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.36</v>
+        <v>13.37</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Juvenes/Dogana</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Libertas</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
       <c r="J39" t="n">
-        <v>3.5</v>
+        <v>2.17</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4.12</v>
+        <v>3.28</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:27</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.48</v>
+        <v>3.19</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.93</v>
+        <v>3.62</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:27</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.74</v>
+        <v>2.69</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:27</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-ac-libertas/vg6f2SBr/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-juvenes-dogana/UXegNTm8/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>21/10/2023 14:27</t>
+          <t>21/10/2023 14:57</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.19</v>
+        <v>2.82</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>21/10/2023 14:27</t>
+          <t>21/10/2023 14:57</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.69</v>
+        <v>2.82</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>21/10/2023 14:27</t>
+          <t>21/10/2023 14:57</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-juvenes-dogana/UXegNTm8/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-la-fiorita/zLa306te/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.28</v>
+        <v>3.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3.26</v>
+        <v>4.12</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>21/10/2023 14:57</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.82</v>
+        <v>3.48</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.64</v>
+        <v>3.93</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>21/10/2023 14:57</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.82</v>
+        <v>1.74</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.38</v>
+        <v>1.64</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>21/10/2023 14:57</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-la-fiorita/zLa306te/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-ac-libertas/vg6f2SBr/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.64</v>
+        <v>3.06</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.82</v>
+        <v>3.24</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>2.75</v>
+        <v>3.21</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2.69</v>
+        <v>3.24</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.47</v>
+        <v>1.96</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.64</v>
+        <v>2.05</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>2</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Fiorentino</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
       <c r="J45" t="n">
-        <v>3.06</v>
+        <v>2.35</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,48 +4552,48 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>28/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
           <t>28/10/2023 14:33</t>
         </is>
       </c>
-      <c r="N45" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O45" t="inlineStr">
+      <c r="R45" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S45" t="inlineStr">
         <is>
           <t>27/10/2023 03:12</t>
         </is>
       </c>
-      <c r="P45" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>28/10/2023 14:33</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>27/10/2023 03:12</t>
-        </is>
-      </c>
       <c r="T45" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>28/10/2023 14:33</t>
+          <t>28/10/2023 14:46</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>La Fiorita</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Domagnano</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
       <c r="J46" t="n">
-        <v>2.35</v>
+        <v>2.64</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.66</v>
+        <v>2.69</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.9</v>
+        <v>2.64</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>3.49</v>
+        <v>1.43</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.69</v>
+        <v>1.51</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.48</v>
+        <v>4.12</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.85</v>
+        <v>4.42</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>04/11/2023 14:16</t>
+          <t>04/11/2023 14:05</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.74</v>
+        <v>4.83</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.74</v>
+        <v>4.61</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>04/11/2023 14:08</t>
+          <t>04/11/2023 14:05</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-folgore/thsTZ6XD/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-cailungo/rJ29Fxna/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>2.6</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.21</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>04/11/2023 14:16</t>
+          <t>04/11/2023 14:18</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.01</v>
+        <v>4.93</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.15</v>
+        <v>4.58</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04/11/2023 14:16</t>
+          <t>04/11/2023 14:18</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.32</v>
+        <v>1.21</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.1</v>
+        <v>1.29</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>04/11/2023 14:06</t>
+          <t>04/11/2023 14:18</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-tre-penne/hU9dIv2t/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-la-fiorita/SlgoBNfD/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.43</v>
+        <v>3.49</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.51</v>
+        <v>3.69</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.12</v>
+        <v>3.48</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.42</v>
+        <v>3.85</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>04/11/2023 14:05</t>
+          <t>04/11/2023 14:16</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.83</v>
+        <v>1.74</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.61</v>
+        <v>1.74</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>04/11/2023 14:05</t>
+          <t>04/11/2023 14:08</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-cailungo/rJ29Fxna/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-folgore/thsTZ6XD/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>8.470000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>8.970000000000001</v>
+        <v>3.21</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>04/11/2023 14:18</t>
+          <t>04/11/2023 14:16</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.93</v>
+        <v>3.01</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.58</v>
+        <v>3.15</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>04/11/2023 14:18</t>
+          <t>04/11/2023 14:16</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1.21</v>
+        <v>2.32</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.29</v>
+        <v>2.1</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>04/11/2023 14:18</t>
+          <t>04/11/2023 14:06</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-la-fiorita/SlgoBNfD/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-tre-penne/hU9dIv2t/</t>
         </is>
       </c>
     </row>
@@ -5514,6 +5514,190 @@
       <c r="V55" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-virtus/zga1HbHn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45235.625</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Murata</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>5</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Pennarossa</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>04/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:06</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>04/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:06</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>04/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:06</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-ss-pennarossa/4YjIDGGB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45235.625</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Tre Fiori</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>5</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Juvenes/Dogana</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>04/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:08</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>04/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:08</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>04/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:08</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-juvenes-dogana/M91DEd15/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>7.14</v>
+        <v>1.59</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>7.7</v>
+        <v>4.15</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 14:55</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.9</v>
+        <v>3.61</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.93</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 14:55</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>4.04</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 14:55</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-cosmos/r1TPbYmg/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-ss-murata/QPIUch3a/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,14 +1501,14 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.49</v>
+        <v>7.14</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6.36</v>
+        <v>7.7</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>23/09/2023 14:22</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.93</v>
+        <v>4.93</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>23/09/2023 14:22</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>23/09/2023 14:22</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-tre-fiori/4GHYdCI5/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-cosmos/r1TPbYmg/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tre Fiori</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Murata</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.59</v>
+        <v>6.49</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4.15</v>
+        <v>6.36</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>23/09/2023 14:55</t>
+          <t>23/09/2023 14:22</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.61</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.5</v>
+        <v>3.93</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>23/09/2023 14:55</t>
+          <t>23/09/2023 14:22</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.04</v>
+        <v>1.31</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>23/09/2023 14:55</t>
+          <t>23/09/2023 14:22</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-ss-murata/QPIUch3a/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-tre-fiori/4GHYdCI5/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>6.17</v>
+        <v>2.08</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6.86</v>
+        <v>1.56</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>03/10/2023 10:58</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4.22</v>
+        <v>3.13</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.31</v>
+        <v>3.85</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>04/10/2023 19:16</t>
+          <t>04/10/2023 19:20</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>1.33</v>
+        <v>2.89</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>1.36</v>
+        <v>4.79</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>04/10/2023 19:03</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-domagnano/QLvpj11j/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>4.05</v>
+        <v>6.67</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6.38</v>
+        <v>6.29</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 19:15</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.7</v>
+        <v>4.52</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.94</v>
+        <v>4.44</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 19:20</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.58</v>
+        <v>1.28</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 19:15</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-ss-murata/Es7xdik9/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-la-fiorita/A90ofVJL/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.15</v>
+        <v>4.05</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.13</v>
+        <v>6.38</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>6.11</v>
+        <v>3.7</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>7.23</v>
+        <v>4.94</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>8.859999999999999</v>
+        <v>1.58</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>13.37</v>
+        <v>1.34</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-ss-murata/Es7xdik9/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.08</v>
+        <v>6.17</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.56</v>
+        <v>6.86</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>03/10/2023 10:58</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.13</v>
+        <v>4.22</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.85</v>
+        <v>4.31</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>04/10/2023 19:20</t>
+          <t>04/10/2023 19:16</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.89</v>
+        <v>1.33</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.79</v>
+        <v>1.36</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>04/10/2023 19:03</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-domagnano/QLvpj11j/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>6.67</v>
+        <v>1.15</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6.29</v>
+        <v>1.13</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>04/10/2023 19:15</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.52</v>
+        <v>6.11</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.44</v>
+        <v>7.23</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>04/10/2023 19:20</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>1.28</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.38</v>
+        <v>13.37</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>04/10/2023 19:15</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-la-fiorita/A90ofVJL/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Libertas</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Juvenes/Dogana</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
       <c r="J39" t="n">
-        <v>2.17</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.28</v>
+        <v>4.12</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>21/10/2023 14:27</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.19</v>
+        <v>3.48</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.62</v>
+        <v>3.93</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>21/10/2023 14:27</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.69</v>
+        <v>1.74</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>21/10/2023 14:27</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-juvenes-dogana/UXegNTm8/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-ac-libertas/vg6f2SBr/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.28</v>
+        <v>2.17</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>21/10/2023 14:57</t>
+          <t>21/10/2023 14:27</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2.82</v>
+        <v>3.19</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2.64</v>
+        <v>3.62</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>21/10/2023 14:57</t>
+          <t>21/10/2023 14:27</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.82</v>
+        <v>2.69</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>21/10/2023 14:57</t>
+          <t>21/10/2023 14:27</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-la-fiorita/zLa306te/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-juvenes-dogana/UXegNTm8/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.5</v>
+        <v>2.28</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4.12</v>
+        <v>3.26</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:57</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.48</v>
+        <v>2.82</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.93</v>
+        <v>2.64</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:57</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.74</v>
+        <v>2.82</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.64</v>
+        <v>2.38</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:57</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-ac-libertas/vg6f2SBr/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-la-fiorita/zLa306te/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>La Fiorita</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Domagnano</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>2</v>
-      </c>
       <c r="J45" t="n">
-        <v>2.35</v>
+        <v>2.64</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.66</v>
+        <v>2.69</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.9</v>
+        <v>2.64</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>2</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>La Fiorita</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
       <c r="J46" t="n">
-        <v>2.64</v>
+        <v>2.35</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,48 +4644,48 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>28/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
           <t>28/10/2023 14:33</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O46" t="inlineStr">
+      <c r="R46" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S46" t="inlineStr">
         <is>
           <t>27/10/2023 03:12</t>
         </is>
       </c>
-      <c r="P46" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>28/10/2023 14:33</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>27/10/2023 03:12</t>
-        </is>
-      </c>
       <c r="T46" t="n">
-        <v>2.64</v>
+        <v>1.9</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/10/2023 14:33</t>
+          <t>28/10/2023 14:46</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,14 +5549,14 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.38</v>
+        <v>3.9</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.73</v>
+        <v>4.05</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>5.5</v>
+        <v>5.01</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>5.7</v>
+        <v>4.62</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-ss-pennarossa/4YjIDGGB/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-juvenes-dogana/M91DEd15/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.9</v>
+        <v>4.38</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.05</v>
+        <v>4.73</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.01</v>
+        <v>5.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,108 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.62</v>
+        <v>5.7</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-juvenes-dogana/M91DEd15/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-ss-pennarossa/4YjIDGGB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Pennarossa</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>La Fiorita</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>3</v>
+      </c>
+      <c r="J58" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:16</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:16</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:16</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-la-fiorita/zDRnTeGb/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>30/09/2023 14:01</t>
+          <t>30/09/2023 11:15</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.82</v>
+        <v>5.91</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.21</v>
+        <v>6.92</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>30/09/2023 14:06</t>
+          <t>30/09/2023 13:02</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>5.1</v>
+        <v>9.56</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.99</v>
+        <v>12.95</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>30/09/2023 14:06</t>
+          <t>30/09/2023 11:15</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-fiorentino/byQ00oPc/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-san-giovanni/6swFxrXj/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.15</v>
+        <v>4.45</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.13</v>
+        <v>4.76</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>30/09/2023 11:15</t>
+          <t>30/09/2023 14:08</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>5.91</v>
+        <v>3.99</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>6.92</v>
+        <v>4.46</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>30/09/2023 13:02</t>
+          <t>30/09/2023 14:12</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>9.56</v>
+        <v>1.5</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>12.95</v>
+        <v>1.49</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>30/09/2023 11:15</t>
+          <t>30/09/2023 14:12</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-san-giovanni/6swFxrXj/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-ac-libertas/Qcdca5v4/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.76</v>
+        <v>4.66</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>30/09/2023 14:08</t>
+          <t>30/09/2023 13:51</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.99</v>
+        <v>3.75</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,11 +2084,11 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.46</v>
+        <v>3.92</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>30/09/2023 14:12</t>
+          <t>30/09/2023 13:51</t>
         </is>
       </c>
       <c r="R18" t="n">
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>30/09/2023 14:12</t>
+          <t>30/09/2023 13:51</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-ac-libertas/Qcdca5v4/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-virtus/KpRd1R9i/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.6</v>
+        <v>1.44</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4.66</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>30/09/2023 13:51</t>
+          <t>30/09/2023 14:01</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.75</v>
+        <v>3.82</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.92</v>
+        <v>4.21</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>30/09/2023 13:51</t>
+          <t>30/09/2023 14:06</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.57</v>
+        <v>4.99</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>30/09/2023 13:51</t>
+          <t>30/09/2023 14:06</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-virtus/KpRd1R9i/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-fiorentino/byQ00oPc/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.63</v>
+        <v>1.12</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.63</v>
+        <v>1.12</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>07/10/2023 12:14</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.34</v>
+        <v>6.37</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.65</v>
+        <v>7.58</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>07/10/2023 13:02</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.24</v>
+        <v>10.28</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.51</v>
+        <v>12.66</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>07/10/2023 12:14</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-folgore/84SBAj42/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-san-giovanni/6unHl9sq/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1.12</v>
+        <v>1.63</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.12</v>
+        <v>1.63</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 12:14</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>6.37</v>
+        <v>3.34</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>7.58</v>
+        <v>3.65</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 13:02</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>10.28</v>
+        <v>4.24</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>12.66</v>
+        <v>4.51</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 12:14</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-san-giovanni/6unHl9sq/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-folgore/84SBAj42/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Juvenes/Dogana</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Libertas</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
       <c r="J39" t="n">
-        <v>3.5</v>
+        <v>2.17</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4.12</v>
+        <v>3.28</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:27</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.48</v>
+        <v>3.19</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.93</v>
+        <v>3.62</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:27</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.74</v>
+        <v>2.69</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:27</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-ac-libertas/vg6f2SBr/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-juvenes-dogana/UXegNTm8/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>21/10/2023 14:27</t>
+          <t>21/10/2023 14:57</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.19</v>
+        <v>2.82</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>21/10/2023 14:27</t>
+          <t>21/10/2023 14:57</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.69</v>
+        <v>2.82</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>21/10/2023 14:27</t>
+          <t>21/10/2023 14:57</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-juvenes-dogana/UXegNTm8/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-la-fiorita/zLa306te/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.28</v>
+        <v>3.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3.26</v>
+        <v>4.12</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>21/10/2023 14:57</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.82</v>
+        <v>3.48</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.64</v>
+        <v>3.93</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>21/10/2023 14:57</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.82</v>
+        <v>1.74</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.38</v>
+        <v>1.64</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>21/10/2023 14:57</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-la-fiorita/zLa306te/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-ac-libertas/vg6f2SBr/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>3.06</v>
+        <v>2.64</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.24</v>
+        <v>2.82</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.21</v>
+        <v>2.75</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.24</v>
+        <v>2.69</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.96</v>
+        <v>2.47</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.05</v>
+        <v>2.64</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>2</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>La Fiorita</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
       <c r="J45" t="n">
-        <v>2.64</v>
+        <v>2.35</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,48 +4552,48 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>28/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
           <t>28/10/2023 14:33</t>
         </is>
       </c>
-      <c r="N45" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O45" t="inlineStr">
+      <c r="R45" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S45" t="inlineStr">
         <is>
           <t>27/10/2023 03:12</t>
         </is>
       </c>
-      <c r="P45" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>28/10/2023 14:33</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>27/10/2023 03:12</t>
-        </is>
-      </c>
       <c r="T45" t="n">
-        <v>2.64</v>
+        <v>1.9</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>28/10/2023 14:33</t>
+          <t>28/10/2023 14:46</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.35</v>
+        <v>3.06</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.66</v>
+        <v>3.24</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.69</v>
+        <v>1.45</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.01</v>
+        <v>1.85</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 14:24</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.3</v>
+        <v>4.07</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.7</v>
+        <v>3.81</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 14:32</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.12</v>
+        <v>4.66</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.99</v>
+        <v>3.26</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 14:24</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sc-faetano/MVzYFotr/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ss-murata/zZvxF5el/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.45</v>
+        <v>2.69</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.85</v>
+        <v>3.01</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>29/10/2023 14:24</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.07</v>
+        <v>3.3</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.81</v>
+        <v>3.7</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>29/10/2023 14:32</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.66</v>
+        <v>2.12</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.26</v>
+        <v>1.99</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>29/10/2023 14:24</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ss-murata/zZvxF5el/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sc-faetano/MVzYFotr/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,14 +5549,14 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.9</v>
+        <v>4.38</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.05</v>
+        <v>4.73</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>5.01</v>
+        <v>5.5</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.62</v>
+        <v>5.7</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-juvenes-dogana/M91DEd15/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-ss-pennarossa/4YjIDGGB/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.38</v>
+        <v>3.9</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.73</v>
+        <v>4.05</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.5</v>
+        <v>5.01</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.7</v>
+        <v>4.62</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-ss-pennarossa/4YjIDGGB/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-juvenes-dogana/M91DEd15/</t>
         </is>
       </c>
     </row>
@@ -5790,6 +5790,374 @@
       <c r="V58" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-la-fiorita/zDRnTeGb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Cailungo</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>11/11/2023 09:29</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>11/11/2023 09:29</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sp-domagnano/ldPzWcWu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Folgore</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Murata</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:29</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:29</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-ss-murata/SnOvVHon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45241.76041666666</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>San Marino Academy U22</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Tre Fiori</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:22</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:24</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:22</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-marino-academy-tre-fiori/G8fMCzWH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45241.76041666666</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Tre Penne</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>6</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Fiorentino</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>11/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:03</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>11/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:08</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>11/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:08</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-fiorentino/AVgQBfoO/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.39</v>
+        <v>4.61</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.49</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>16/09/2023 12:06</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.85</v>
+        <v>3.88</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.09</v>
+        <v>3.77</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>16/09/2023 13:02</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.65</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.6</v>
+        <v>1.88</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>16/09/2023 12:06</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-virtus/b1PrFkBj/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-folgore/8W6ZyDI3/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Faetano</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Folgore</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
       <c r="J6" t="n">
-        <v>4.61</v>
+        <v>1.95</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>1.54</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.88</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.77</v>
+        <v>4.83</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>2.98</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>1.88</v>
+        <v>4.02</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-folgore/8W6ZyDI3/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-sc-faetano/C4DQwZmi/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.95</v>
+        <v>2.39</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.54</v>
+        <v>2.49</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 12:06</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>2.85</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.83</v>
+        <v>3.09</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 13:02</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.98</v>
+        <v>2.65</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>4.02</v>
+        <v>2.6</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 12:06</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-sc-faetano/C4DQwZmi/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-virtus/b1PrFkBj/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>30/09/2023 11:15</t>
+          <t>30/09/2023 14:01</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>5.91</v>
+        <v>3.82</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>6.92</v>
+        <v>4.21</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>30/09/2023 13:02</t>
+          <t>30/09/2023 14:06</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>9.56</v>
+        <v>5.1</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>12.95</v>
+        <v>4.99</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>30/09/2023 11:15</t>
+          <t>30/09/2023 14:06</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-san-giovanni/6swFxrXj/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-fiorentino/byQ00oPc/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>30/09/2023 14:01</t>
+          <t>30/09/2023 11:15</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.82</v>
+        <v>5.91</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.21</v>
+        <v>6.92</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>30/09/2023 14:06</t>
+          <t>30/09/2023 13:02</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>5.1</v>
+        <v>9.56</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.99</v>
+        <v>12.95</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>30/09/2023 14:06</t>
+          <t>30/09/2023 11:15</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-fiorentino/byQ00oPc/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-san-giovanni/6swFxrXj/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.12</v>
+        <v>1.63</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.12</v>
+        <v>1.63</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 12:14</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>6.37</v>
+        <v>3.34</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>7.58</v>
+        <v>3.65</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 13:02</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>10.28</v>
+        <v>4.24</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>12.66</v>
+        <v>4.51</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 12:14</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-san-giovanni/6unHl9sq/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-folgore/84SBAj42/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.63</v>
+        <v>1.12</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.63</v>
+        <v>1.12</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>07/10/2023 12:14</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.34</v>
+        <v>6.37</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.65</v>
+        <v>7.58</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>07/10/2023 13:02</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.24</v>
+        <v>10.28</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.51</v>
+        <v>12.66</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>07/10/2023 12:14</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-folgore/84SBAj42/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-san-giovanni/6unHl9sq/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.35</v>
+        <v>3.06</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.66</v>
+        <v>3.24</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>2</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Fiorentino</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
       <c r="J46" t="n">
-        <v>3.06</v>
+        <v>2.35</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,48 +4644,48 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>28/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
           <t>28/10/2023 14:33</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O46" t="inlineStr">
+      <c r="R46" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S46" t="inlineStr">
         <is>
           <t>27/10/2023 03:12</t>
         </is>
       </c>
-      <c r="P46" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>28/10/2023 14:33</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>27/10/2023 03:12</t>
-        </is>
-      </c>
       <c r="T46" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/10/2023 14:33</t>
+          <t>28/10/2023 14:46</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.45</v>
+        <v>3.11</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.85</v>
+        <v>2.84</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:24</t>
+          <t>29/10/2023 09:05</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.07</v>
+        <v>2.97</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.81</v>
+        <v>3.25</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:32</t>
+          <t>29/10/2023 13:01</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.66</v>
+        <v>2.05</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.26</v>
+        <v>2.2</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:24</t>
+          <t>29/10/2023 09:05</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ss-murata/zZvxF5el/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-sp-cosmos/8OfcMm3E/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>3.11</v>
+        <v>2.69</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.84</v>
+        <v>3.01</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>29/10/2023 09:05</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>2.97</v>
+        <v>3.3</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>29/10/2023 13:01</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>29/10/2023 09:05</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-sp-cosmos/8OfcMm3E/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sc-faetano/MVzYFotr/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.69</v>
+        <v>1.45</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.01</v>
+        <v>1.85</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 14:24</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.3</v>
+        <v>4.07</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.7</v>
+        <v>3.81</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 14:32</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.12</v>
+        <v>4.66</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.99</v>
+        <v>3.26</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 14:24</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sc-faetano/MVzYFotr/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ss-murata/zZvxF5el/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,14 +5549,14 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.38</v>
+        <v>3.9</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.73</v>
+        <v>4.05</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>5.5</v>
+        <v>5.01</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>5.7</v>
+        <v>4.62</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-ss-pennarossa/4YjIDGGB/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-juvenes-dogana/M91DEd15/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.9</v>
+        <v>4.38</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.05</v>
+        <v>4.73</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.01</v>
+        <v>5.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.62</v>
+        <v>5.7</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-juvenes-dogana/M91DEd15/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-ss-pennarossa/4YjIDGGB/</t>
         </is>
       </c>
     </row>
@@ -6158,6 +6158,282 @@
       <c r="V62" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-fiorentino/AVgQBfoO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Libertas</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>San Giovanni</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>12/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:06</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>12/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:48</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>12/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:06</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-san-giovanni/IyHiSFV4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Juvenes/Dogana</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Cosmos</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>4</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>12/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:32</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>12/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:32</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>12/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:32</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-sp-cosmos/M9NrUy1h/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Virtus</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>6</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Faetano</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>12/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>12/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>12/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:53</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-sc-faetano/lMhUAE0U/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>12.94</v>
+        <v>2.24</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>16.75</v>
+        <v>2.18</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>08/10/2023 14:02</t>
+          <t>07/10/2023 10:48</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>8.43</v>
+        <v>3.23</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>7.04</v>
+        <v>3.35</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>08/10/2023 14:02</t>
+          <t>08/10/2023 13:02</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1.07</v>
+        <v>2.57</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.11</v>
+        <v>2.84</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>08/10/2023 14:02</t>
+          <t>07/10/2023 10:48</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sp-cosmos/UJGK8UYE/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-sc-faetano/neRF9AJ8/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Cosmos</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>3</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Faetano</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>4</v>
-      </c>
       <c r="J35" t="n">
-        <v>2.24</v>
+        <v>12.94</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.18</v>
+        <v>16.75</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>07/10/2023 10:48</t>
+          <t>08/10/2023 14:02</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.23</v>
+        <v>8.43</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.35</v>
+        <v>7.04</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>08/10/2023 13:02</t>
+          <t>08/10/2023 14:02</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.57</v>
+        <v>1.07</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.84</v>
+        <v>1.11</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>07/10/2023 10:48</t>
+          <t>08/10/2023 14:02</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-sc-faetano/neRF9AJ8/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sp-cosmos/UJGK8UYE/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.64</v>
+        <v>3.06</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.82</v>
+        <v>3.24</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>2.75</v>
+        <v>3.21</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2.69</v>
+        <v>3.24</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.47</v>
+        <v>1.96</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.64</v>
+        <v>2.05</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>2</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Fiorentino</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
       <c r="J45" t="n">
-        <v>3.06</v>
+        <v>2.35</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,48 +4552,48 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>28/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
           <t>28/10/2023 14:33</t>
         </is>
       </c>
-      <c r="N45" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O45" t="inlineStr">
+      <c r="R45" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S45" t="inlineStr">
         <is>
           <t>27/10/2023 03:12</t>
         </is>
       </c>
-      <c r="P45" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>28/10/2023 14:33</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>27/10/2023 03:12</t>
-        </is>
-      </c>
       <c r="T45" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>28/10/2023 14:33</t>
+          <t>28/10/2023 14:46</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>La Fiorita</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Domagnano</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
       <c r="J46" t="n">
-        <v>2.35</v>
+        <v>2.64</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.66</v>
+        <v>2.69</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.9</v>
+        <v>2.64</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>3.11</v>
+        <v>2.69</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.84</v>
+        <v>3.01</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>29/10/2023 09:05</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.97</v>
+        <v>3.3</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>29/10/2023 13:01</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>29/10/2023 09:05</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-sp-cosmos/8OfcMm3E/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sc-faetano/MVzYFotr/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.69</v>
+        <v>3.11</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.01</v>
+        <v>2.84</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 09:05</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.3</v>
+        <v>2.97</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 13:01</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 09:05</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sc-faetano/MVzYFotr/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-sp-cosmos/8OfcMm3E/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.43</v>
+        <v>2.6</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.51</v>
+        <v>3.21</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>04/11/2023 14:05</t>
+          <t>04/11/2023 14:16</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.12</v>
+        <v>3.01</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.42</v>
+        <v>3.15</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>04/11/2023 14:05</t>
+          <t>04/11/2023 14:16</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.83</v>
+        <v>2.32</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.61</v>
+        <v>2.1</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>04/11/2023 14:05</t>
+          <t>04/11/2023 14:06</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-cailungo/rJ29Fxna/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-tre-penne/hU9dIv2t/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>8.470000000000001</v>
+        <v>3.49</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>8.970000000000001</v>
+        <v>3.69</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>04/11/2023 14:18</t>
+          <t>04/11/2023 14:05</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.93</v>
+        <v>3.48</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.58</v>
+        <v>3.85</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04/11/2023 14:18</t>
+          <t>04/11/2023 14:16</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.21</v>
+        <v>1.74</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1.29</v>
+        <v>1.74</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>04/11/2023 14:18</t>
+          <t>04/11/2023 14:08</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-la-fiorita/SlgoBNfD/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-folgore/thsTZ6XD/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>3.49</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3.69</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>04/11/2023 14:05</t>
+          <t>04/11/2023 14:18</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.48</v>
+        <v>4.93</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.85</v>
+        <v>4.58</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>04/11/2023 14:16</t>
+          <t>04/11/2023 14:18</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.74</v>
+        <v>1.21</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.74</v>
+        <v>1.29</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>04/11/2023 14:08</t>
+          <t>04/11/2023 14:18</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-folgore/thsTZ6XD/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-la-fiorita/SlgoBNfD/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.6</v>
+        <v>1.43</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.21</v>
+        <v>1.51</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>04/11/2023 14:16</t>
+          <t>04/11/2023 14:05</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.01</v>
+        <v>4.12</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.15</v>
+        <v>4.42</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>04/11/2023 14:16</t>
+          <t>04/11/2023 14:05</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.32</v>
+        <v>4.83</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.1</v>
+        <v>4.61</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>04/11/2023 14:06</t>
+          <t>04/11/2023 14:05</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-tre-penne/hU9dIv2t/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-cailungo/rJ29Fxna/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,14 +5549,14 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.9</v>
+        <v>4.38</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.05</v>
+        <v>4.73</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>5.01</v>
+        <v>5.5</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.62</v>
+        <v>5.7</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-juvenes-dogana/M91DEd15/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-ss-pennarossa/4YjIDGGB/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.38</v>
+        <v>3.9</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.73</v>
+        <v>4.05</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.5</v>
+        <v>5.01</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.7</v>
+        <v>4.62</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-ss-pennarossa/4YjIDGGB/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-juvenes-dogana/M91DEd15/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.47</v>
+        <v>7.74</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>12/11/2023 14:06</t>
+          <t>12/11/2023 13:32</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.96</v>
+        <v>4.28</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.35</v>
+        <v>4.97</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>12/11/2023 14:48</t>
+          <t>12/11/2023 13:32</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>4.89</v>
+        <v>1.42</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>5.13</v>
+        <v>1.29</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>12/11/2023 14:06</t>
+          <t>12/11/2023 13:32</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-san-giovanni/IyHiSFV4/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-sp-cosmos/M9NrUy1h/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>7.74</v>
+        <v>1.47</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>12/11/2023 13:32</t>
+          <t>12/11/2023 14:06</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.28</v>
+        <v>3.96</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.97</v>
+        <v>4.35</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>12/11/2023 13:32</t>
+          <t>12/11/2023 14:48</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.42</v>
+        <v>4.89</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.29</v>
+        <v>5.13</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>12/11/2023 13:32</t>
+          <t>12/11/2023 14:06</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-sp-cosmos/M9NrUy1h/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-san-giovanni/IyHiSFV4/</t>
         </is>
       </c>
     </row>
@@ -6434,6 +6434,374 @@
       <c r="V65" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-sc-faetano/lMhUAE0U/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45255.625</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Tre Penne</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-tre-penne/j3UbQg0H/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45255.625</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Murata</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>4</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Juvenes/Dogana</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:26</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:07</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:07</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-juvenes-dogana/UgT2PDFN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45256.625</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Folgore</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Virtus</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>26/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:07</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>26/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:07</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>26/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:07</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-virtus/dSFeRZpB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45256.625</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Cailungo</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Pennarossa</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>26/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>26/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>26/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-ss-pennarossa/lvAZJiwo/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.53</v>
+        <v>6.99</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3.15</v>
+        <v>5.82</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14/09/2023 11:59</t>
+          <t>15/09/2023 10:26</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.12</v>
+        <v>4.92</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.49</v>
+        <v>4.91</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>15/09/2023 19:18</t>
+          <t>15/09/2023 19:17</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.32</v>
+        <v>1.24</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>1.36</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>14/09/2023 11:59</t>
+          <t>15/09/2023 10:26</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-fiorentino/GtMJKBmT/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-tre-penne/nN5wyXX9/</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.23</v>
+        <v>2.53</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.19</v>
+        <v>3.15</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>14/09/2023 11:59</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5.03</v>
+        <v>3.12</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>6.15</v>
+        <v>3.49</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>15/09/2023 19:18</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.46</v>
+        <v>2.32</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>10.59</v>
+        <v>1.97</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>14/09/2023 11:59</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-sp-domagnano/Q7HUxg3c/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-fiorentino/GtMJKBmT/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>6.99</v>
+        <v>1.23</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5.82</v>
+        <v>1.19</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>15/09/2023 10:26</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.92</v>
+        <v>5.03</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4.91</v>
+        <v>6.15</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>15/09/2023 19:17</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>7.46</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1.36</v>
+        <v>10.59</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>15/09/2023 10:26</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-tre-penne/nN5wyXX9/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-sp-domagnano/Q7HUxg3c/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.08</v>
+        <v>6.17</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.56</v>
+        <v>6.86</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>03/10/2023 10:58</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.13</v>
+        <v>4.22</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.85</v>
+        <v>4.31</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>04/10/2023 19:20</t>
+          <t>04/10/2023 19:16</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.89</v>
+        <v>1.33</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.79</v>
+        <v>1.36</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>04/10/2023 19:03</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-domagnano/QLvpj11j/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>6.67</v>
+        <v>4.05</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6.29</v>
+        <v>6.38</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>04/10/2023 19:15</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.52</v>
+        <v>3.7</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.44</v>
+        <v>4.94</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>04/10/2023 19:20</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.28</v>
+        <v>1.58</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>04/10/2023 19:15</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-la-fiorita/A90ofVJL/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-ss-murata/Es7xdik9/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>4.05</v>
+        <v>1.15</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6.38</v>
+        <v>1.13</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.7</v>
+        <v>6.11</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.94</v>
+        <v>7.23</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.58</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.34</v>
+        <v>13.37</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-ss-murata/Es7xdik9/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>6.17</v>
+        <v>2.08</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6.86</v>
+        <v>1.56</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>03/10/2023 10:58</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4.22</v>
+        <v>3.13</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.31</v>
+        <v>3.85</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>04/10/2023 19:16</t>
+          <t>04/10/2023 19:20</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1.33</v>
+        <v>2.89</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.36</v>
+        <v>4.79</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>04/10/2023 19:03</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-domagnano/QLvpj11j/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.15</v>
+        <v>6.67</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.13</v>
+        <v>6.29</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 19:15</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>6.11</v>
+        <v>4.52</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>7.23</v>
+        <v>4.44</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 19:20</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>8.859999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>13.37</v>
+        <v>1.38</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 19:15</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-la-fiorita/A90ofVJL/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Cosmos</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>3</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Faetano</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>4</v>
-      </c>
       <c r="J34" t="n">
-        <v>2.24</v>
+        <v>12.94</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.18</v>
+        <v>16.75</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>07/10/2023 10:48</t>
+          <t>08/10/2023 14:02</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.23</v>
+        <v>8.43</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.35</v>
+        <v>7.04</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>08/10/2023 13:02</t>
+          <t>08/10/2023 14:02</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.57</v>
+        <v>1.07</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.84</v>
+        <v>1.11</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>07/10/2023 10:48</t>
+          <t>08/10/2023 14:02</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-sc-faetano/neRF9AJ8/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sp-cosmos/UJGK8UYE/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>12.94</v>
+        <v>2.24</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>16.75</v>
+        <v>2.18</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>08/10/2023 14:02</t>
+          <t>07/10/2023 10:48</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>8.43</v>
+        <v>3.23</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>7.04</v>
+        <v>3.35</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>08/10/2023 14:02</t>
+          <t>08/10/2023 13:02</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>1.07</v>
+        <v>2.57</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1.11</v>
+        <v>2.84</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>08/10/2023 14:02</t>
+          <t>07/10/2023 10:48</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sp-cosmos/UJGK8UYE/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-sc-faetano/neRF9AJ8/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.65</v>
+        <v>1.24</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.87</v>
+        <v>1.32</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>20/10/2023 21:11</t>
+          <t>20/10/2023 20:20</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.37</v>
+        <v>5.12</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.59</v>
+        <v>5.05</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>20/10/2023 21:11</t>
+          <t>20/10/2023 20:23</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.06</v>
+        <v>6.73</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.42</v>
+        <v>6.69</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>20/10/2023 21:11</t>
+          <t>20/10/2023 20:23</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-san-giovanni/rNKO7llL/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-cailungo/dU0a1nRl/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.32</v>
+        <v>1.87</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>20/10/2023 20:20</t>
+          <t>20/10/2023 21:11</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>5.12</v>
+        <v>3.37</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>5.05</v>
+        <v>3.59</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>20/10/2023 20:23</t>
+          <t>20/10/2023 21:11</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>6.73</v>
+        <v>4.06</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>6.69</v>
+        <v>3.42</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>20/10/2023 20:23</t>
+          <t>20/10/2023 21:11</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-cailungo/dU0a1nRl/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-san-giovanni/rNKO7llL/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.6</v>
+        <v>1.43</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.21</v>
+        <v>1.51</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>04/11/2023 14:16</t>
+          <t>04/11/2023 14:05</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.01</v>
+        <v>4.12</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.15</v>
+        <v>4.42</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>04/11/2023 14:16</t>
+          <t>04/11/2023 14:05</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.32</v>
+        <v>4.83</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.1</v>
+        <v>4.61</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>04/11/2023 14:06</t>
+          <t>04/11/2023 14:05</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-tre-penne/hU9dIv2t/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-cailungo/rJ29Fxna/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>3.49</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.69</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>04/11/2023 14:05</t>
+          <t>04/11/2023 14:18</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.48</v>
+        <v>4.93</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.85</v>
+        <v>4.58</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04/11/2023 14:16</t>
+          <t>04/11/2023 14:18</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.74</v>
+        <v>1.21</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1.74</v>
+        <v>1.29</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>04/11/2023 14:08</t>
+          <t>04/11/2023 14:18</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-folgore/thsTZ6XD/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-la-fiorita/SlgoBNfD/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>8.470000000000001</v>
+        <v>3.49</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>8.970000000000001</v>
+        <v>3.69</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>04/11/2023 14:18</t>
+          <t>04/11/2023 14:05</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.93</v>
+        <v>3.48</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.58</v>
+        <v>3.85</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>04/11/2023 14:18</t>
+          <t>04/11/2023 14:16</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.21</v>
+        <v>1.74</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.29</v>
+        <v>1.74</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>04/11/2023 14:18</t>
+          <t>04/11/2023 14:08</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-la-fiorita/SlgoBNfD/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-folgore/thsTZ6XD/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.43</v>
+        <v>2.6</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.51</v>
+        <v>3.21</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>04/11/2023 14:05</t>
+          <t>04/11/2023 14:16</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.12</v>
+        <v>3.01</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.42</v>
+        <v>3.15</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>04/11/2023 14:05</t>
+          <t>04/11/2023 14:16</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.83</v>
+        <v>2.32</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.61</v>
+        <v>2.1</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>04/11/2023 14:05</t>
+          <t>04/11/2023 14:06</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-cailungo/rJ29Fxna/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-tre-penne/hU9dIv2t/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>5.4</v>
+        <v>1.21</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>7.74</v>
+        <v>1.19</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>12/11/2023 13:32</t>
+          <t>12/11/2023 14:53</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.28</v>
+        <v>5.7</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.97</v>
+        <v>6.22</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>12/11/2023 13:32</t>
+          <t>12/11/2023 14:53</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.42</v>
+        <v>8.26</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.29</v>
+        <v>9.65</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>12/11/2023 13:32</t>
+          <t>12/11/2023 14:53</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-sp-cosmos/M9NrUy1h/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-sc-faetano/lMhUAE0U/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.47</v>
+        <v>7.74</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>12/11/2023 14:06</t>
+          <t>12/11/2023 13:32</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.96</v>
+        <v>4.28</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.35</v>
+        <v>4.97</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>12/11/2023 14:48</t>
+          <t>12/11/2023 13:32</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.89</v>
+        <v>1.42</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.13</v>
+        <v>1.29</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>12/11/2023 14:06</t>
+          <t>12/11/2023 13:32</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-san-giovanni/IyHiSFV4/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-sp-cosmos/M9NrUy1h/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>12/11/2023 14:53</t>
+          <t>12/11/2023 14:06</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>5.7</v>
+        <v>3.96</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>6.22</v>
+        <v>4.35</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>12/11/2023 14:53</t>
+          <t>12/11/2023 14:48</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>8.26</v>
+        <v>4.89</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>9.65</v>
+        <v>5.13</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>12/11/2023 14:53</t>
+          <t>12/11/2023 14:06</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-sc-faetano/lMhUAE0U/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-san-giovanni/IyHiSFV4/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>6.22</v>
+        <v>2.35</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6.3</v>
+        <v>1.69</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>26/11/2023 14:07</t>
+          <t>26/11/2023 14:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.32</v>
+        <v>3.29</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.28</v>
+        <v>3.89</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>26/11/2023 14:07</t>
+          <t>26/11/2023 14:56</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>1.37</v>
+        <v>2.56</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.4</v>
+        <v>3.89</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>26/11/2023 14:07</t>
+          <t>26/11/2023 14:56</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-virtus/dSFeRZpB/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-ss-pennarossa/lvAZJiwo/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,339 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
+          <t>Virtus</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>26/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:07</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>26/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:07</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>26/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:07</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-virtus/dSFeRZpB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>Pennarossa</t>
         </is>
       </c>
-      <c r="I69" t="n">
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Cosmos</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>02/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:01</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>02/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:01</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>02/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:01</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-cosmos/x0CaeEai/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Tre Penne</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Libertas</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>02/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:35</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>02/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:35</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>02/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:35</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ac-libertas/rcgxvDUG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Virtus</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Murata</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>26/11/2023 04:12</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>26/11/2023 14:56</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>26/11/2023 04:12</t>
-        </is>
-      </c>
-      <c r="P69" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>26/11/2023 14:56</t>
-        </is>
-      </c>
-      <c r="R69" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>26/11/2023 04:12</t>
-        </is>
-      </c>
-      <c r="T69" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>26/11/2023 14:56</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-ss-pennarossa/lvAZJiwo/</t>
+      <c r="J72" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>02/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:44</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>02/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:44</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>02/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-ss-murata/x0jUuZa4/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>3.06</v>
+        <v>2.64</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.24</v>
+        <v>2.82</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.21</v>
+        <v>2.75</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.24</v>
+        <v>2.69</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.96</v>
+        <v>2.47</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.05</v>
+        <v>2.64</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,14 +4629,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.64</v>
+        <v>3.06</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.82</v>
+        <v>3.24</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2.75</v>
+        <v>3.21</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2.69</v>
+        <v>3.24</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.47</v>
+        <v>1.96</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.64</v>
+        <v>2.05</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.69</v>
+        <v>1.45</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.01</v>
+        <v>1.85</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 14:24</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.3</v>
+        <v>4.07</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.7</v>
+        <v>3.81</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 14:32</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.12</v>
+        <v>4.66</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.99</v>
+        <v>3.26</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 14:24</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sc-faetano/MVzYFotr/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ss-murata/zZvxF5el/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.45</v>
+        <v>2.69</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.85</v>
+        <v>3.01</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>29/10/2023 14:24</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.07</v>
+        <v>3.3</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.81</v>
+        <v>3.7</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>29/10/2023 14:32</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.66</v>
+        <v>2.12</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.26</v>
+        <v>1.99</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>29/10/2023 14:24</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ss-murata/zZvxF5el/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sc-faetano/MVzYFotr/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,14 +5549,14 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.38</v>
+        <v>3.9</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.73</v>
+        <v>4.05</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>5.5</v>
+        <v>5.01</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>5.7</v>
+        <v>4.62</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-ss-pennarossa/4YjIDGGB/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-juvenes-dogana/M91DEd15/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.9</v>
+        <v>4.38</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.05</v>
+        <v>4.73</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.01</v>
+        <v>5.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.62</v>
+        <v>5.7</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-juvenes-dogana/M91DEd15/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-ss-pennarossa/4YjIDGGB/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>12/11/2023 14:53</t>
+          <t>12/11/2023 14:06</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>5.7</v>
+        <v>3.96</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>6.22</v>
+        <v>4.35</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>12/11/2023 14:53</t>
+          <t>12/11/2023 14:48</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>8.26</v>
+        <v>4.89</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>9.65</v>
+        <v>5.13</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>12/11/2023 14:53</t>
+          <t>12/11/2023 14:06</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-sc-faetano/lMhUAE0U/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-san-giovanni/IyHiSFV4/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.47</v>
+        <v>1.19</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>12/11/2023 14:06</t>
+          <t>12/11/2023 14:53</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.96</v>
+        <v>5.7</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.35</v>
+        <v>6.22</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>12/11/2023 14:48</t>
+          <t>12/11/2023 14:53</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.89</v>
+        <v>8.26</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>5.13</v>
+        <v>9.65</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>12/11/2023 14:06</t>
+          <t>12/11/2023 14:53</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-san-giovanni/IyHiSFV4/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-sc-faetano/lMhUAE0U/</t>
         </is>
       </c>
     </row>
@@ -7078,6 +7078,98 @@
       <c r="V72" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-ss-murata/x0jUuZa4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45262.76041666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Tre Fiori</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Cailungo</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>02/12/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:39</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>02/12/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:40</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>02/12/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:40</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-cailungo/WMkYvgFA/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>6.99</v>
+        <v>2.53</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5.82</v>
+        <v>3.15</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15/09/2023 10:26</t>
+          <t>14/09/2023 11:59</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4.92</v>
+        <v>3.12</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>4.91</v>
+        <v>3.49</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>15/09/2023 19:17</t>
+          <t>15/09/2023 19:18</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.24</v>
+        <v>2.32</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>1.36</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>15/09/2023 10:26</t>
+          <t>14/09/2023 11:59</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-tre-penne/nN5wyXX9/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-fiorentino/GtMJKBmT/</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.53</v>
+        <v>6.99</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3.15</v>
+        <v>5.82</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>14/09/2023 11:59</t>
+          <t>15/09/2023 10:26</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.12</v>
+        <v>4.92</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.49</v>
+        <v>4.91</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>15/09/2023 19:18</t>
+          <t>15/09/2023 19:17</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.32</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>1.97</v>
+        <v>1.36</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>14/09/2023 11:59</t>
+          <t>15/09/2023 10:26</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-fiorentino/GtMJKBmT/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-tre-penne/nN5wyXX9/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>4.61</v>
+        <v>2.39</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>2.49</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 12:06</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.88</v>
+        <v>2.85</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.77</v>
+        <v>3.09</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 13:02</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>2.65</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>1.88</v>
+        <v>2.6</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 12:06</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-folgore/8W6ZyDI3/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-virtus/b1PrFkBj/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.39</v>
+        <v>4.61</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.49</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>16/09/2023 12:06</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.85</v>
+        <v>3.88</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.09</v>
+        <v>3.77</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>16/09/2023 13:02</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.65</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.6</v>
+        <v>1.88</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>16/09/2023 12:06</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-virtus/b1PrFkBj/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-folgore/8W6ZyDI3/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tre Fiori</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Murata</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
       <c r="J10" t="n">
-        <v>1.59</v>
+        <v>6.49</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4.15</v>
+        <v>6.36</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>23/09/2023 14:55</t>
+          <t>23/09/2023 14:22</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.61</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.5</v>
+        <v>3.93</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>23/09/2023 14:55</t>
+          <t>23/09/2023 14:22</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.04</v>
+        <v>1.31</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>23/09/2023 14:55</t>
+          <t>23/09/2023 14:22</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-ss-murata/QPIUch3a/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-tre-fiori/4GHYdCI5/</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.41</v>
+        <v>7.14</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.46</v>
+        <v>7.7</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>23/09/2023 14:50</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4.19</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.71</v>
+        <v>4.93</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>23/09/2023 14:50</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>4.9</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>4.78</v>
+        <v>1.3</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>23/09/2023 14:51</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-cailungo/YkMxdWXB/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-cosmos/r1TPbYmg/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,14 +1501,14 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>7.14</v>
+        <v>1.41</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,48 +1516,48 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7.7</v>
+        <v>1.46</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 14:50</t>
         </is>
       </c>
       <c r="N12" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:50</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
         <v>4.9</v>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>22/09/2023 03:13</t>
         </is>
       </c>
-      <c r="P12" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>23/09/2023 14:59</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>22/09/2023 03:13</t>
-        </is>
-      </c>
       <c r="T12" t="n">
-        <v>1.3</v>
+        <v>4.78</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 14:51</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-cosmos/r1TPbYmg/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-cailungo/YkMxdWXB/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>6.49</v>
+        <v>1.59</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6.36</v>
+        <v>4.15</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>23/09/2023 14:22</t>
+          <t>23/09/2023 14:55</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>3.61</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.93</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>23/09/2023 14:22</t>
+          <t>23/09/2023 14:55</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.31</v>
+        <v>4.04</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>23/09/2023 14:22</t>
+          <t>23/09/2023 14:55</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-tre-fiori/4GHYdCI5/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-ss-murata/QPIUch3a/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>9.01</v>
+        <v>2.3</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>8.08</v>
+        <v>2.76</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>24/09/2023 14:55</t>
+          <t>24/09/2023 14:54</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>5.46</v>
+        <v>3.15</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>5.57</v>
+        <v>3.48</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>24/09/2023 14:55</t>
+          <t>24/09/2023 14:07</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.17</v>
+        <v>2.53</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>24/09/2023 14:55</t>
+          <t>24/09/2023 14:54</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-la-fiorita/hvZAwOHp/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-juvenes-dogana/x4QH0fJt/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.3</v>
+        <v>9.01</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.76</v>
+        <v>8.08</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>24/09/2023 14:54</t>
+          <t>24/09/2023 14:55</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.15</v>
+        <v>5.46</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.48</v>
+        <v>5.57</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>24/09/2023 14:07</t>
+          <t>24/09/2023 14:55</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.53</v>
+        <v>1.17</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>24/09/2023 14:54</t>
+          <t>24/09/2023 14:55</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-juvenes-dogana/x4QH0fJt/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-la-fiorita/hvZAwOHp/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>4.45</v>
+        <v>1.15</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.76</v>
+        <v>1.13</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>30/09/2023 14:08</t>
+          <t>30/09/2023 11:15</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.99</v>
+        <v>5.91</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.46</v>
+        <v>6.92</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>30/09/2023 14:12</t>
+          <t>30/09/2023 13:02</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>9.56</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.49</v>
+        <v>12.95</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>30/09/2023 14:12</t>
+          <t>30/09/2023 11:15</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-ac-libertas/Qcdca5v4/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-san-giovanni/6swFxrXj/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.66</v>
+        <v>4.76</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>30/09/2023 13:51</t>
+          <t>30/09/2023 14:08</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.75</v>
+        <v>3.99</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,11 +2084,11 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.92</v>
+        <v>4.46</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>30/09/2023 13:51</t>
+          <t>30/09/2023 14:12</t>
         </is>
       </c>
       <c r="R18" t="n">
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>30/09/2023 13:51</t>
+          <t>30/09/2023 14:12</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-virtus/KpRd1R9i/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-ac-libertas/Qcdca5v4/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.15</v>
+        <v>4.6</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.13</v>
+        <v>4.66</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>30/09/2023 11:15</t>
+          <t>30/09/2023 13:51</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>5.91</v>
+        <v>3.75</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>6.92</v>
+        <v>3.92</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>30/09/2023 13:02</t>
+          <t>30/09/2023 13:51</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>9.56</v>
+        <v>1.5</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>12.95</v>
+        <v>1.57</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>30/09/2023 11:15</t>
+          <t>30/09/2023 13:51</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-san-giovanni/6swFxrXj/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-virtus/KpRd1R9i/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>15.08</v>
+        <v>1.2</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>9.94</v>
+        <v>1.58</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>01/10/2023 14:09</t>
+          <t>01/10/2023 14:06</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>10.14</v>
+        <v>4.94</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>7.57</v>
+        <v>3.27</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>01/10/2023 14:09</t>
+          <t>01/10/2023 14:31</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.04</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.15</v>
+        <v>5.8</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>01/10/2023 14:04</t>
+          <t>01/10/2023 14:08</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-tre-penne/CEb9d3OM/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/la-fiorita-folgore/4le1bPgA/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.2</v>
+        <v>15.08</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.58</v>
+        <v>9.94</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>01/10/2023 14:06</t>
+          <t>01/10/2023 14:09</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4.94</v>
+        <v>10.14</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.27</v>
+        <v>7.57</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>01/10/2023 14:31</t>
+          <t>01/10/2023 14:09</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>9.050000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>5.8</v>
+        <v>1.15</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>01/10/2023 14:08</t>
+          <t>01/10/2023 14:04</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/la-fiorita-folgore/4le1bPgA/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-tre-penne/CEb9d3OM/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>7.32</v>
+        <v>1.65</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>7.46</v>
+        <v>1.67</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>03/10/2023 21:10</t>
+          <t>03/10/2023 20:20</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.94</v>
+        <v>3.47</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>5.1</v>
+        <v>3.74</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>03/10/2023 21:10</t>
+          <t>03/10/2023 20:20</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>1.23</v>
+        <v>4.06</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.29</v>
+        <v>4.2</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>03/10/2023 21:10</t>
+          <t>03/10/2023 20:20</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-sp-cosmos/hY5teB4F/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-ac-libertas/dnztisnp/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.65</v>
+        <v>7.32</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.67</v>
+        <v>7.46</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>03/10/2023 20:20</t>
+          <t>03/10/2023 21:10</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.47</v>
+        <v>4.94</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.74</v>
+        <v>5.1</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>03/10/2023 20:20</t>
+          <t>03/10/2023 21:10</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.06</v>
+        <v>1.23</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.2</v>
+        <v>1.29</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>03/10/2023 20:20</t>
+          <t>03/10/2023 21:10</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-ac-libertas/dnztisnp/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-sp-cosmos/hY5teB4F/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>6.17</v>
+        <v>2.08</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6.86</v>
+        <v>1.56</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>03/10/2023 10:58</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4.22</v>
+        <v>3.13</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.31</v>
+        <v>3.85</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>04/10/2023 19:16</t>
+          <t>04/10/2023 19:20</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>1.33</v>
+        <v>2.89</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>1.36</v>
+        <v>4.79</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>04/10/2023 15:16</t>
+          <t>04/10/2023 19:03</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-domagnano/QLvpj11j/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>4.05</v>
+        <v>6.67</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6.38</v>
+        <v>6.29</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 19:15</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.7</v>
+        <v>4.52</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.94</v>
+        <v>4.44</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 19:20</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.58</v>
+        <v>1.28</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>04/10/2023 21:11</t>
+          <t>04/10/2023 19:15</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-ss-murata/Es7xdik9/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-la-fiorita/A90ofVJL/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.15</v>
+        <v>4.05</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.13</v>
+        <v>6.38</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>6.11</v>
+        <v>3.7</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>7.23</v>
+        <v>4.94</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>8.859999999999999</v>
+        <v>1.58</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>13.37</v>
+        <v>1.34</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>04/10/2023 21:14</t>
+          <t>04/10/2023 21:11</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-ss-murata/Es7xdik9/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.08</v>
+        <v>6.17</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.56</v>
+        <v>6.86</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>03/10/2023 10:58</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.13</v>
+        <v>4.22</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.85</v>
+        <v>4.31</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>04/10/2023 19:20</t>
+          <t>04/10/2023 19:16</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.89</v>
+        <v>1.33</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.79</v>
+        <v>1.36</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>04/10/2023 19:03</t>
+          <t>04/10/2023 15:16</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-sp-domagnano/QLvpj11j/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-tre-fiori/KK7YdXZ2/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>6.67</v>
+        <v>1.15</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6.29</v>
+        <v>1.13</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>04/10/2023 19:15</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.52</v>
+        <v>6.11</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.44</v>
+        <v>7.23</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>04/10/2023 19:20</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>1.28</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.38</v>
+        <v>13.37</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>04/10/2023 19:15</t>
+          <t>04/10/2023 21:14</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-la-fiorita/A90ofVJL/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-sc-faetano/8p4UcDKd/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>12.94</v>
+        <v>2.24</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>16.75</v>
+        <v>2.18</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>08/10/2023 14:02</t>
+          <t>07/10/2023 10:48</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>8.43</v>
+        <v>3.23</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>7.04</v>
+        <v>3.35</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>08/10/2023 14:02</t>
+          <t>08/10/2023 13:02</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1.07</v>
+        <v>2.57</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.11</v>
+        <v>2.84</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>08/10/2023 14:02</t>
+          <t>07/10/2023 10:48</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sp-cosmos/UJGK8UYE/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-sc-faetano/neRF9AJ8/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Cosmos</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>3</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Faetano</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>4</v>
-      </c>
       <c r="J35" t="n">
-        <v>2.24</v>
+        <v>12.94</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.18</v>
+        <v>16.75</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>07/10/2023 10:48</t>
+          <t>08/10/2023 14:02</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.23</v>
+        <v>8.43</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.35</v>
+        <v>7.04</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>08/10/2023 13:02</t>
+          <t>08/10/2023 14:02</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.57</v>
+        <v>1.07</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.84</v>
+        <v>1.11</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>07/10/2023 10:48</t>
+          <t>08/10/2023 14:02</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-sc-faetano/neRF9AJ8/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sp-cosmos/UJGK8UYE/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.32</v>
+        <v>1.87</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>20/10/2023 20:20</t>
+          <t>20/10/2023 21:11</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>5.12</v>
+        <v>3.37</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>5.05</v>
+        <v>3.59</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>20/10/2023 20:23</t>
+          <t>20/10/2023 21:11</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>6.73</v>
+        <v>4.06</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>6.69</v>
+        <v>3.42</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>20/10/2023 20:23</t>
+          <t>20/10/2023 21:11</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-cailungo/dU0a1nRl/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-san-giovanni/rNKO7llL/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.65</v>
+        <v>1.24</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.87</v>
+        <v>1.32</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>20/10/2023 21:11</t>
+          <t>20/10/2023 20:20</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.37</v>
+        <v>5.12</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.59</v>
+        <v>5.05</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>20/10/2023 21:11</t>
+          <t>20/10/2023 20:23</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.06</v>
+        <v>6.73</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.42</v>
+        <v>6.69</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>20/10/2023 21:11</t>
+          <t>20/10/2023 20:23</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-san-giovanni/rNKO7llL/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-cailungo/dU0a1nRl/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>La Fiorita</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.64</v>
+        <v>2.35</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,48 +4460,48 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>28/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>28/10/2023 14:33</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O44" t="inlineStr">
+      <c r="R44" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>27/10/2023 03:12</t>
         </is>
       </c>
-      <c r="P44" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>28/10/2023 14:33</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>27/10/2023 03:12</t>
-        </is>
-      </c>
       <c r="T44" t="n">
-        <v>2.64</v>
+        <v>1.9</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>28/10/2023 14:33</t>
+          <t>28/10/2023 14:46</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.35</v>
+        <v>3.06</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.66</v>
+        <v>3.24</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,14 +4629,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>3.06</v>
+        <v>2.64</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.24</v>
+        <v>2.82</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.21</v>
+        <v>2.75</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.24</v>
+        <v>2.69</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.96</v>
+        <v>2.47</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.05</v>
+        <v>2.64</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,14 +5549,14 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.9</v>
+        <v>4.38</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.05</v>
+        <v>4.73</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>5.01</v>
+        <v>5.5</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.62</v>
+        <v>5.7</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>05/11/2023 14:08</t>
+          <t>05/11/2023 14:06</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-juvenes-dogana/M91DEd15/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-ss-pennarossa/4YjIDGGB/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.38</v>
+        <v>3.9</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.73</v>
+        <v>4.05</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.5</v>
+        <v>5.01</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.7</v>
+        <v>4.62</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>05/11/2023 14:06</t>
+          <t>05/11/2023 14:08</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-ss-pennarossa/4YjIDGGB/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-juvenes-dogana/M91DEd15/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>10.52</v>
+        <v>3.18</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>17.59</v>
+        <v>4.36</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>11/11/2023 14:16</t>
+          <t>11/11/2023 14:29</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>6.17</v>
+        <v>3.49</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>8.039999999999999</v>
+        <v>3.92</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>11/11/2023 14:16</t>
+          <t>11/11/2023 14:29</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.16</v>
+        <v>1.92</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.09</v>
+        <v>1.61</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>11/11/2023 14:16</t>
+          <t>11/11/2023 14:29</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-la-fiorita/zDRnTeGb/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-ss-murata/SnOvVHon/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>3.18</v>
+        <v>10.52</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4.36</v>
+        <v>17.59</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>11/11/2023 14:29</t>
+          <t>11/11/2023 14:16</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.49</v>
+        <v>6.17</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.92</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>11/11/2023 14:29</t>
+          <t>11/11/2023 14:16</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.92</v>
+        <v>1.16</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.61</v>
+        <v>1.09</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>11/11/2023 14:29</t>
+          <t>11/11/2023 14:16</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-ss-murata/SnOvVHon/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-la-fiorita/zDRnTeGb/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>15.14</v>
+        <v>1.78</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>16.25</v>
+        <v>1.73</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>02/12/2023 13:01</t>
+          <t>02/12/2023 14:44</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>8.380000000000001</v>
+        <v>3.55</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>8.949999999999999</v>
+        <v>3.47</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>02/12/2023 13:01</t>
+          <t>02/12/2023 14:44</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>1.09</v>
+        <v>3.68</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.09</v>
+        <v>4.17</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>02/12/2023 13:01</t>
+          <t>02/12/2023 13:52</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-cosmos/x0CaeEai/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-ss-murata/x0jUuZa4/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J71" t="n">
-        <v>1.3</v>
+        <v>15.14</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.29</v>
+        <v>16.25</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>02/12/2023 14:35</t>
+          <t>02/12/2023 13:01</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>4.86</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>5.03</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>02/12/2023 14:35</t>
+          <t>02/12/2023 13:01</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>7.16</v>
+        <v>1.09</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>7.76</v>
+        <v>1.09</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>02/12/2023 14:35</t>
+          <t>02/12/2023 13:01</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ac-libertas/rcgxvDUG/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-cosmos/x0CaeEai/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,14 +7021,14 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1.78</v>
+        <v>1.3</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.73</v>
+        <v>1.29</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>02/12/2023 14:44</t>
+          <t>02/12/2023 14:35</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.55</v>
+        <v>4.86</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.47</v>
+        <v>5.03</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>02/12/2023 14:44</t>
+          <t>02/12/2023 14:35</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.68</v>
+        <v>7.16</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>4.17</v>
+        <v>7.76</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>02/12/2023 13:52</t>
+          <t>02/12/2023 14:35</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-ss-murata/x0jUuZa4/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ac-libertas/rcgxvDUG/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,1662 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-cailungo/WMkYvgFA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45263.625</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Fiorentino</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>La Fiorita</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>03/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:17</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>03/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:17</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>03/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:15</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-la-fiorita/4CsoxiaT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45263.625</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Juvenes/Dogana</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Folgore</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>03/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:04</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>03/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:04</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>03/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:04</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-folgore/QLrswXqN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45263.625</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>San Giovanni</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>03/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:04</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>03/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:04</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>03/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:04</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-san-giovanni/d4ZCXA7p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45269.625</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Folgore</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Tre Penne</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>09/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:01</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>09/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:01</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>09/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:01</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-tre-penne/E1LroUyp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45269.625</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Cosmos</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Virtus</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>09/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:05</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>09/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:05</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>09/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:05</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-virtus/OGEBhCqA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45269.625</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Fiorentino</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>2</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>09/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:01</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>09/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:01</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>09/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:01</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-fiorentino/zH9iq86d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45269.76041666666</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>San Giovanni</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>5</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Cailungo</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>09/12/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:20</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>09/12/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>09/12/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-cailungo/xtUGkATS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45269.76041666666</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>La Fiorita</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>San Marino Academy U22</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:23</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/la-fiorita-san-marino-academy/4SV8iWbG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45270.625</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Libertas</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Juvenes/Dogana</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>10/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>10/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>10/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-juvenes-dogana/dQAmplij/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45270.625</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Murata</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Tre Fiori</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>10/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:08</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>10/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:08</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>10/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:08</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-tre-fiori/pQF7ghU3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45270.76041666666</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Faetano</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Pennarossa</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>10/12/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:48</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>10/12/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:48</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>10/12/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:48</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-ss-pennarossa/rJUCjjEM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45276.625</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Juvenes/Dogana</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Faetano</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>16/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:00</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>16/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:00</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>16/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:00</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-sc-faetano/2N1w7Bb3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45276.625</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Cosmos</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Murata</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>16/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>16/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>16/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-ss-murata/zTXEmNcr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45276.625</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Pennarossa</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>San Giovanni</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>16/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>16/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>16/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-san-giovanni/OW2Z7iqc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45276.76041666666</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Tre Fiori</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Libertas</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>16/12/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>16/12/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>16/12/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:03</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-ac-libertas/rX9o5kTF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45277.625</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Tre Penne</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>La Fiorita</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>17/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>3</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:49</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>17/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:49</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>17/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:49</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-la-fiorita/EJWInsDl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45277.625</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Fiorentino</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Folgore</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>17/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:46</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>17/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:46</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>17/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:46</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-folgore/AoQRpLs1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45277.625</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Virtus</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Cailungo</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>17/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:02</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>17/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:02</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>17/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:02</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-cailungo/pnir6VD9/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.53</v>
+        <v>1.23</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3.15</v>
+        <v>1.19</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14/09/2023 11:59</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.12</v>
+        <v>5.03</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.49</v>
+        <v>6.15</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>15/09/2023 19:18</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.32</v>
+        <v>7.46</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>10.59</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>14/09/2023 11:59</t>
+          <t>15/09/2023 20:23</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-fiorentino/GtMJKBmT/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-sp-domagnano/Q7HUxg3c/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.23</v>
+        <v>2.53</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.19</v>
+        <v>3.15</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>14/09/2023 11:59</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5.03</v>
+        <v>3.12</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>6.15</v>
+        <v>3.49</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>15/09/2023 19:18</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.46</v>
+        <v>2.32</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>10.59</v>
+        <v>1.97</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>15/09/2023 20:23</t>
+          <t>14/09/2023 11:59</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-sp-domagnano/Q7HUxg3c/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-fiorentino/GtMJKBmT/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>4.61</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.54</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>3.88</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.83</v>
+        <v>3.77</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.98</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>4.02</v>
+        <v>1.88</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:24</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-sc-faetano/C4DQwZmi/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-folgore/8W6ZyDI3/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Faetano</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Folgore</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
       <c r="J7" t="n">
-        <v>4.61</v>
+        <v>1.95</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.88</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.77</v>
+        <v>4.83</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>2.98</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1.88</v>
+        <v>4.02</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>16/09/2023 14:24</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-folgore/8W6ZyDI3/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-sc-faetano/C4DQwZmi/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.3</v>
+        <v>9.01</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.76</v>
+        <v>8.08</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>24/09/2023 14:54</t>
+          <t>24/09/2023 14:55</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.15</v>
+        <v>5.46</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.48</v>
+        <v>5.57</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>24/09/2023 14:07</t>
+          <t>24/09/2023 14:55</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.53</v>
+        <v>1.17</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>24/09/2023 14:54</t>
+          <t>24/09/2023 14:55</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-juvenes-dogana/x4QH0fJt/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-la-fiorita/hvZAwOHp/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>9.01</v>
+        <v>2.3</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>8.08</v>
+        <v>2.76</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>24/09/2023 14:55</t>
+          <t>24/09/2023 14:54</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>5.46</v>
+        <v>3.15</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>5.57</v>
+        <v>3.48</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>24/09/2023 14:55</t>
+          <t>24/09/2023 14:07</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.17</v>
+        <v>2.53</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>24/09/2023 14:55</t>
+          <t>24/09/2023 14:54</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-la-fiorita/hvZAwOHp/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-juvenes-dogana/x4QH0fJt/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>1.2</v>
+        <v>15.08</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.58</v>
+        <v>9.94</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>01/10/2023 14:06</t>
+          <t>01/10/2023 14:09</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4.94</v>
+        <v>10.14</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.27</v>
+        <v>7.57</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>01/10/2023 14:31</t>
+          <t>01/10/2023 14:09</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>9.050000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>5.8</v>
+        <v>1.15</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>01/10/2023 14:08</t>
+          <t>01/10/2023 14:04</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/la-fiorita-folgore/4le1bPgA/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-tre-penne/CEb9d3OM/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>15.08</v>
+        <v>1.2</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>9.94</v>
+        <v>1.58</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>01/10/2023 14:09</t>
+          <t>01/10/2023 14:06</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>10.14</v>
+        <v>4.94</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>7.57</v>
+        <v>3.27</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>01/10/2023 14:09</t>
+          <t>01/10/2023 14:31</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.04</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.15</v>
+        <v>5.8</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>01/10/2023 14:04</t>
+          <t>01/10/2023 14:08</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-tre-penne/CEb9d3OM/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/la-fiorita-folgore/4le1bPgA/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>La Fiorita</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Domagnano</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.35</v>
+        <v>2.64</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.66</v>
+        <v>2.69</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.9</v>
+        <v>2.64</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>2</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Fiorentino</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
       <c r="J45" t="n">
-        <v>3.06</v>
+        <v>2.35</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,48 +4552,48 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>28/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
           <t>28/10/2023 14:33</t>
         </is>
       </c>
-      <c r="N45" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O45" t="inlineStr">
+      <c r="R45" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S45" t="inlineStr">
         <is>
           <t>27/10/2023 03:12</t>
         </is>
       </c>
-      <c r="P45" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>28/10/2023 14:33</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>27/10/2023 03:12</t>
-        </is>
-      </c>
       <c r="T45" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>28/10/2023 14:33</t>
+          <t>28/10/2023 14:46</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,14 +4629,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.64</v>
+        <v>3.06</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.82</v>
+        <v>3.24</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2.75</v>
+        <v>3.21</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2.69</v>
+        <v>3.24</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.47</v>
+        <v>1.96</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.64</v>
+        <v>2.05</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.45</v>
+        <v>2.69</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.85</v>
+        <v>3.01</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:24</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.07</v>
+        <v>3.3</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.81</v>
+        <v>3.7</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:32</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.66</v>
+        <v>2.12</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.26</v>
+        <v>1.99</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:24</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ss-murata/zZvxF5el/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sc-faetano/MVzYFotr/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>3.11</v>
+        <v>1.45</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.84</v>
+        <v>1.85</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>29/10/2023 09:05</t>
+          <t>29/10/2023 14:24</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>2.97</v>
+        <v>4.07</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.25</v>
+        <v>3.81</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>29/10/2023 13:01</t>
+          <t>29/10/2023 14:32</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.05</v>
+        <v>4.66</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.2</v>
+        <v>3.26</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>29/10/2023 09:05</t>
+          <t>29/10/2023 14:24</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-sp-cosmos/8OfcMm3E/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ss-murata/zZvxF5el/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.69</v>
+        <v>3.11</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.01</v>
+        <v>2.84</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 09:05</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.3</v>
+        <v>2.97</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 13:01</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 09:05</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sc-faetano/MVzYFotr/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-sp-cosmos/8OfcMm3E/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>2.83</v>
+        <v>10.52</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.48</v>
+        <v>17.59</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>11/11/2023 09:29</t>
+          <t>11/11/2023 14:16</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.37</v>
+        <v>6.17</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.33</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>11/11/2023 13:03</t>
+          <t>11/11/2023 14:16</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.12</v>
+        <v>1.16</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.46</v>
+        <v>1.09</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>11/11/2023 09:29</t>
+          <t>11/11/2023 14:16</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sp-domagnano/ldPzWcWu/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-la-fiorita/zDRnTeGb/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>10.52</v>
+        <v>2.83</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>17.59</v>
+        <v>2.48</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>11/11/2023 14:16</t>
+          <t>11/11/2023 09:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>6.17</v>
+        <v>3.37</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>8.039999999999999</v>
+        <v>3.33</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>11/11/2023 14:16</t>
+          <t>11/11/2023 13:03</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.16</v>
+        <v>2.12</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.09</v>
+        <v>2.46</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>11/11/2023 14:16</t>
+          <t>11/11/2023 09:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-la-fiorita/zDRnTeGb/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sp-domagnano/ldPzWcWu/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>10.81</v>
+        <v>1.62</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>9.16</v>
+        <v>1.33</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>25/11/2023 14:21</t>
+          <t>25/11/2023 12:26</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>6.98</v>
+        <v>3.92</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>6.1</v>
+        <v>5.15</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>25/11/2023 14:21</t>
+          <t>25/11/2023 14:07</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>1.14</v>
+        <v>4.01</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.2</v>
+        <v>6.22</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>25/11/2023 14:12</t>
+          <t>25/11/2023 14:07</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-tre-penne/j3UbQg0H/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-juvenes-dogana/UgT2PDFN/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.62</v>
+        <v>10.81</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.33</v>
+        <v>9.16</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>25/11/2023 12:26</t>
+          <t>25/11/2023 14:21</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.92</v>
+        <v>6.98</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>5.15</v>
+        <v>6.1</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>25/11/2023 14:07</t>
+          <t>25/11/2023 14:21</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.01</v>
+        <v>1.14</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>6.22</v>
+        <v>1.2</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>25/11/2023 14:07</t>
+          <t>25/11/2023 14:12</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-juvenes-dogana/UgT2PDFN/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-tre-penne/j3UbQg0H/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Libertas</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>1</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Cosmos</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>5</v>
-      </c>
       <c r="J71" t="n">
-        <v>15.14</v>
+        <v>1.3</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>16.25</v>
+        <v>1.29</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>02/12/2023 13:01</t>
+          <t>02/12/2023 14:35</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>8.380000000000001</v>
+        <v>4.86</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>8.949999999999999</v>
+        <v>5.03</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>02/12/2023 13:01</t>
+          <t>02/12/2023 14:35</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>1.09</v>
+        <v>7.16</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>1.09</v>
+        <v>7.76</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>02/12/2023 13:01</t>
+          <t>02/12/2023 14:35</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-cosmos/x0CaeEai/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ac-libertas/rcgxvDUG/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J72" t="n">
-        <v>1.3</v>
+        <v>15.14</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.29</v>
+        <v>16.25</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>02/12/2023 14:35</t>
+          <t>02/12/2023 13:01</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>4.86</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>5.03</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>02/12/2023 14:35</t>
+          <t>02/12/2023 13:01</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>7.16</v>
+        <v>1.09</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>7.76</v>
+        <v>1.09</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>02/12/2023 14:35</t>
+          <t>02/12/2023 13:01</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ac-libertas/rcgxvDUG/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-cosmos/x0CaeEai/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1.76</v>
+        <v>2.9</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.65</v>
+        <v>3.01</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>10/12/2023 14:55</t>
+          <t>10/12/2023 14:08</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.61</v>
+        <v>3.3</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4</v>
+        <v>3.18</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>10/12/2023 14:55</t>
+          <t>10/12/2023 14:08</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.7</v>
+        <v>2.15</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.09</v>
+        <v>2.18</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>10/12/2023 14:55</t>
+          <t>10/12/2023 14:08</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-juvenes-dogana/dQAmplij/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-tre-fiori/pQF7ghU3/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.9</v>
+        <v>1.76</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.01</v>
+        <v>2.65</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>10/12/2023 14:08</t>
+          <t>10/12/2023 14:55</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.3</v>
+        <v>3.61</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.18</v>
+        <v>4</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>10/12/2023 14:08</t>
+          <t>10/12/2023 14:55</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.15</v>
+        <v>3.7</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>10/12/2023 14:08</t>
+          <t>10/12/2023 14:55</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-murata-tre-fiori/pQF7ghU3/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-juvenes-dogana/dQAmplij/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.44</v>
+        <v>1.14</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3</v>
+        <v>1.13</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>17/12/2023 14:49</t>
+          <t>17/12/2023 14:02</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>2.87</v>
+        <v>6.85</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>2.36</v>
+        <v>7.4</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>17/12/2023 14:49</t>
+          <t>17/12/2023 14:02</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.81</v>
+        <v>11.07</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.87</v>
+        <v>12.37</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>17/12/2023 14:49</t>
+          <t>17/12/2023 14:02</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-la-fiorita/EJWInsDl/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-cailungo/pnir6VD9/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,439 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>La Fiorita</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>17/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
         <v>3</v>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:49</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>17/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:49</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>17/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:49</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-la-fiorita/EJWInsDl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45297.625</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>La Fiorita</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>06/01/2024 04:13</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>06/01/2024 13:04</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>06/01/2024 04:13</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>06/01/2024 13:04</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>06/01/2024 04:13</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>06/01/2024 13:04</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-domagnano-la-fiorita/IBTZraCD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45297.625</v>
+      </c>
+      <c r="F93" t="inlineStr">
         <is>
           <t>Cailungo</t>
         </is>
       </c>
-      <c r="I91" t="n">
+      <c r="G93" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>17/12/2023 04:12</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>17/12/2023 14:02</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>17/12/2023 04:12</t>
-        </is>
-      </c>
-      <c r="P91" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>17/12/2023 14:02</t>
-        </is>
-      </c>
-      <c r="R91" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>17/12/2023 04:12</t>
-        </is>
-      </c>
-      <c r="T91" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>17/12/2023 14:02</t>
-        </is>
-      </c>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-cailungo/pnir6VD9/</t>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Juvenes/Dogana</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>06/01/2024 04:13</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>06/01/2024 14:56</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>06/01/2024 04:13</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>06/01/2024 14:56</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>06/01/2024 04:13</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>06/01/2024 14:56</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-juvenes-dogana/8thh1tSs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45297.625</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Tre Penne</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Tre Fiori</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>06/01/2024 04:13</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>06/01/2024 14:16</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>06/01/2024 04:13</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>06/01/2024 14:16</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>06/01/2024 04:13</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>06/01/2024 13:01</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-tre-fiori/6X5Q5MJQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45297.76041666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Faetano</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Fiorentino</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>06/01/2024 07:43</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:21</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>06/01/2024 07:43</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:21</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>06/01/2024 07:43</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:21</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-fiorentino/j5sc00sl/</t>
         </is>
       </c>
     </row>

--- a/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
+++ b/2023/san-marino_campionato-sammarinese_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Domagnano</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>La Fiorita</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.64</v>
+        <v>2.35</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,48 +4460,48 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>28/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>28/10/2023 14:33</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O44" t="inlineStr">
+      <c r="R44" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>27/10/2023 03:12</t>
         </is>
       </c>
-      <c r="P44" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>28/10/2023 14:33</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>27/10/2023 03:12</t>
-        </is>
-      </c>
       <c r="T44" t="n">
-        <v>2.64</v>
+        <v>1.9</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>28/10/2023 14:33</t>
+          <t>28/10/2023 14:46</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.35</v>
+        <v>3.06</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.66</v>
+        <v>3.24</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>28/10/2023 14:46</t>
+          <t>28/10/2023 14:33</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-sp-domagnano/UevtEPAf/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,14 +4629,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>3.06</v>
+        <v>2.64</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.24</v>
+        <v>2.82</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.21</v>
+        <v>2.75</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.24</v>
+        <v>2.69</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.96</v>
+        <v>2.47</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.05</v>
+        <v>2.64</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-fiorentino/xba1L7IK/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-la-fiorita/Glb5KRXQ/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Tre Fiori</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.69</v>
+        <v>3.11</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.01</v>
+        <v>2.84</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 09:05</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.3</v>
+        <v>2.97</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 13:01</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>29/10/2023 14:54</t>
+          <t>29/10/2023 09:05</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sc-faetano/MVzYFotr/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-sp-cosmos/8OfcMm3E/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.45</v>
+        <v>2.69</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.85</v>
+        <v>3.01</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>29/10/2023 14:24</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.07</v>
+        <v>3.3</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.81</v>
+        <v>3.7</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>29/10/2023 14:32</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.66</v>
+        <v>2.12</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.26</v>
+        <v>1.99</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>29/10/2023 14:24</t>
+          <t>29/10/2023 14:54</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ss-murata/zZvxF5el/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/cailungo-sc-faetano/MVzYFotr/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tre Fiori</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>3.11</v>
+        <v>1.45</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.84</v>
+        <v>1.85</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>29/10/2023 09:05</t>
+          <t>29/10/2023 14:24</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>2.97</v>
+        <v>4.07</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.25</v>
+        <v>3.81</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>29/10/2023 13:01</t>
+          <t>29/10/2023 14:32</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.05</v>
+        <v>4.66</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.2</v>
+        <v>3.26</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>29/10/2023 09:05</t>
+          <t>29/10/2023 14:24</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-fiori-sp-cosmos/8OfcMm3E/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ss-murata/zZvxF5el/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.78</v>
+        <v>1.3</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.73</v>
+        <v>1.29</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>02/12/2023 14:44</t>
+          <t>02/12/2023 14:35</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.55</v>
+        <v>4.86</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.47</v>
+        <v>5.03</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>02/12/2023 14:44</t>
+          <t>02/12/2023 14:35</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.68</v>
+        <v>7.16</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.17</v>
+        <v>7.76</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>02/12/2023 13:52</t>
+          <t>02/12/2023 14:35</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-ss-murata/x0jUuZa4/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ac-libertas/rcgxvDUG/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Libertas</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.3</v>
+        <v>1.78</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.29</v>
+        <v>1.73</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>02/12/2023 14:35</t>
+          <t>02/12/2023 14:44</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>4.86</v>
+        <v>3.55</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>5.03</v>
+        <v>3.47</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>02/12/2023 14:35</t>
+          <t>02/12/2023 14:44</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>7.16</v>
+        <v>3.68</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>7.76</v>
+        <v>4.17</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>02/12/2023 14:35</t>
+          <t>02/12/2023 13:52</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-ac-libertas/rcgxvDUG/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-ss-murata/x0jUuZa4/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>San Marino Academy U22</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.37</v>
+        <v>1.18</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>09/12/2023 07:42</t>
+          <t>09/12/2023 12:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.28</v>
+        <v>1.15</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>09/12/2023 16:20</t>
+          <t>09/12/2023 13:23</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.19</v>
+        <v>6.1</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>09/12/2023 07:42</t>
+          <t>09/12/2023 12:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.24</v>
+        <v>6.7</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>09/12/2023 17:58</t>
+          <t>09/12/2023 18:03</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.65</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>09/12/2023 07:42</t>
+          <t>09/12/2023 12:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.79</v>
+        <v>11.6</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>09/12/2023 17:58</t>
+          <t>09/12/2023 18:03</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-cailungo/xtUGkATS/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/la-fiorita-san-marino-academy/4SV8iWbG/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>San Marino Academy U22</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1.18</v>
+        <v>2.37</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>09/12/2023 12:12</t>
+          <t>09/12/2023 07:42</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.15</v>
+        <v>2.28</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>09/12/2023 13:23</t>
+          <t>09/12/2023 16:20</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>6.1</v>
+        <v>3.19</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>09/12/2023 12:12</t>
+          <t>09/12/2023 07:42</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>6.7</v>
+        <v>3.24</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>09/12/2023 18:03</t>
+          <t>09/12/2023 17:58</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>9.960000000000001</v>
+        <v>2.65</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>09/12/2023 12:12</t>
+          <t>09/12/2023 07:42</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>11.6</v>
+        <v>2.79</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>09/12/2023 18:03</t>
+          <t>09/12/2023 17:58</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/la-fiorita-san-marino-academy/4SV8iWbG/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-cailungo/xtUGkATS/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Juvenes/Dogana</t>
+          <t>Pennarossa</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>San Giovanni</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>3</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Faetano</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
       <c r="J85" t="n">
-        <v>2.08</v>
+        <v>3.28</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.27</v>
+        <v>6.29</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>16/12/2023 13:00</t>
+          <t>16/12/2023 14:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.5</v>
+        <v>3.31</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.6</v>
+        <v>4.32</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>16/12/2023 13:00</t>
+          <t>16/12/2023 14:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.88</v>
+        <v>1.97</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.58</v>
+        <v>1.4</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>16/12/2023 13:00</t>
+          <t>16/12/2023 14:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-sc-faetano/2N1w7Bb3/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-san-giovanni/OW2Z7iqc/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Juvenes/Dogana</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>1.64</v>
+        <v>2.08</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.54</v>
+        <v>2.27</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>16/12/2023 14:59</t>
+          <t>16/12/2023 13:00</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.77</v>
+        <v>3.5</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>16/12/2023 14:59</t>
+          <t>16/12/2023 13:00</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.17</v>
+        <v>2.88</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.95</v>
+        <v>2.58</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>16/12/2023 14:59</t>
+          <t>16/12/2023 13:00</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-ss-murata/zTXEmNcr/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/juvenes-dogana-sc-faetano/2N1w7Bb3/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Pennarossa</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Murata</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>3.28</v>
+        <v>1.64</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>6.29</v>
+        <v>1.54</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.31</v>
+        <v>3.77</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.32</v>
+        <v>3.9</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.97</v>
+        <v>4.17</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.4</v>
+        <v>4.95</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ss-pennarossa-san-giovanni/OW2Z7iqc/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sp-cosmos-ss-murata/zTXEmNcr/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Virtus</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Cailungo</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>1.14</v>
+        <v>2.86</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.13</v>
+        <v>2.92</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>17/12/2023 14:02</t>
+          <t>17/12/2023 14:46</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>6.85</v>
+        <v>3.24</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>7.4</v>
+        <v>3.22</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>17/12/2023 14:02</t>
+          <t>17/12/2023 14:46</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>11.07</v>
+        <v>2.2</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>12.37</v>
+        <v>2.21</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>17/12/2023 14:02</t>
+          <t>17/12/2023 14:46</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-cailungo/pnir6VD9/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-folgore/AoQRpLs1/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Fiorentino</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Folgore</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>2.86</v>
+        <v>2.44</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>17/12/2023 14:46</t>
+          <t>17/12/2023 14:49</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.24</v>
+        <v>2.87</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.22</v>
+        <v>2.36</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>17/12/2023 14:46</t>
+          <t>17/12/2023 14:49</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.2</v>
+        <v>2.81</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.21</v>
+        <v>2.87</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>17/12/2023 14:46</t>
+          <t>17/12/2023 14:49</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/fiorentino-folgore/AoQRpLs1/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-la-fiorita/EJWInsDl/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>La Fiorita</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.44</v>
+        <v>1.14</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>3</v>
+        <v>1.13</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>17/12/2023 14:49</t>
+          <t>17/12/2023 14:02</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>2.87</v>
+        <v>6.85</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>2.36</v>
+        <v>7.4</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>17/12/2023 14:49</t>
+          <t>17/12/2023 14:02</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.81</v>
+        <v>11.07</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.87</v>
+        <v>12.37</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>17/12/2023 14:49</t>
+          <t>17/12/2023 14:02</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/tre-penne-la-fiorita/EJWInsDl/</t>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/virtus-cailungo/pnir6VD9/</t>
         </is>
       </c>
     </row>
@@ -9194,6 +9194,282 @@
       <c r="V95" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/sc-faetano-fiorentino/j5sc00sl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45298.625</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Folgore</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>8</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Pennarossa</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>07/01/2024 04:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>07/01/2024 14:28</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>07/01/2024 04:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>07/01/2024 14:30</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>07/01/2024 04:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>07/01/2024 14:30</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/folgore-ss-pennarossa/b76M624K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45298.625</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Libertas</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Cosmos</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>07/01/2024 04:12</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>07/01/2024 14:04</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>07/01/2024 04:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>07/01/2024 14:04</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>07/01/2024 04:12</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:39</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/ac-libertas-sp-cosmos/KG7I7rkE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>san-marino</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>campionato-sammarinese</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45298.625</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>San Giovanni</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Virtus</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>07/01/2024 04:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:03</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>07/01/2024 04:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:03</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>07/01/2024 04:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:03</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/san-marino/campionato-sammarinese/san-giovanni-virtus/48PVquc7/</t>
         </is>
       </c>
     </row>
